--- a/data/Rasio-KBMI-4.xlsx
+++ b/data/Rasio-KBMI-4.xlsx
@@ -590,70 +590,70 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>24.41</v>
+        <v>0.2441</v>
       </c>
       <c r="F2" t="n">
-        <v>24.96</v>
+        <v>0.2496</v>
       </c>
       <c r="G2" t="n">
-        <v>23.23</v>
+        <v>0.2323</v>
       </c>
       <c r="H2" t="n">
-        <v>21.87</v>
+        <v>0.2187</v>
       </c>
       <c r="I2" t="n">
-        <v>25.23</v>
+        <v>0.2523</v>
       </c>
       <c r="J2" t="n">
-        <v>25.23</v>
+        <v>0.2523</v>
       </c>
       <c r="K2" t="n">
-        <v>24.65</v>
+        <v>0.2465</v>
       </c>
       <c r="L2" t="n">
-        <v>23.01</v>
+        <v>0.2301</v>
       </c>
       <c r="M2" t="n">
-        <v>23.3</v>
+        <v>0.233</v>
       </c>
       <c r="N2" t="n">
-        <v>24</v>
+        <v>0.24</v>
       </c>
       <c r="O2" t="n">
-        <v>22.97</v>
+        <v>0.2297</v>
       </c>
       <c r="P2" t="n">
-        <v>22.39</v>
+        <v>0.2239</v>
       </c>
       <c r="Q2" t="n">
-        <v>25.28</v>
+        <v>0.2528</v>
       </c>
       <c r="R2" t="n">
-        <v>24.37</v>
+        <v>0.2437</v>
       </c>
       <c r="S2" t="n">
-        <v>19.63</v>
+        <v>0.1963</v>
       </c>
       <c r="T2" t="n">
-        <v>19.4</v>
+        <v>0.194</v>
       </c>
       <c r="U2" t="n">
-        <v>20.61</v>
+        <v>0.2061</v>
       </c>
       <c r="V2" t="n">
-        <v>20.38</v>
+        <v>0.2038</v>
       </c>
       <c r="W2" t="n">
-        <v>19.83</v>
+        <v>0.1983</v>
       </c>
       <c r="X2" t="n">
-        <v>18.23</v>
+        <v>0.1823</v>
       </c>
       <c r="Y2" t="n">
-        <v>22.55</v>
+        <v>0.2255</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.62</v>
+        <v>0.2162</v>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
@@ -681,70 +681,70 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1.91</v>
+        <v>0.0191</v>
       </c>
       <c r="F3" t="n">
-        <v>2.04</v>
+        <v>0.0204</v>
       </c>
       <c r="G3" t="n">
-        <v>2.13</v>
+        <v>0.0213</v>
       </c>
       <c r="H3" t="n">
-        <v>2.08</v>
+        <v>0.0208</v>
       </c>
       <c r="I3" t="n">
-        <v>1.95</v>
+        <v>0.0195</v>
       </c>
       <c r="J3" t="n">
-        <v>2.09</v>
+        <v>0.0209</v>
       </c>
       <c r="K3" t="n">
-        <v>1.97</v>
+        <v>0.0197</v>
       </c>
       <c r="L3" t="n">
-        <v>1.94</v>
+        <v>0.0194</v>
       </c>
       <c r="M3" t="n">
-        <v>1.72</v>
+        <v>0.0172</v>
       </c>
       <c r="N3" t="n">
-        <v>1.98</v>
+        <v>0.0198</v>
       </c>
       <c r="O3" t="n">
-        <v>2.18</v>
+        <v>0.0218</v>
       </c>
       <c r="P3" t="n">
-        <v>1.99</v>
+        <v>0.0199</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.77</v>
+        <v>0.0177</v>
       </c>
       <c r="R3" t="n">
-        <v>1.99</v>
+        <v>0.0199</v>
       </c>
       <c r="S3" t="n">
-        <v>2.07</v>
+        <v>0.0207</v>
       </c>
       <c r="T3" t="n">
-        <v>1.98</v>
+        <v>0.0198</v>
       </c>
       <c r="U3" t="n">
-        <v>1.82</v>
+        <v>0.0182</v>
       </c>
       <c r="V3" t="n">
-        <v>1.91</v>
+        <v>0.0191</v>
       </c>
       <c r="W3" t="n">
-        <v>1.91</v>
+        <v>0.0191</v>
       </c>
       <c r="X3" t="n">
-        <v>1.84</v>
+        <v>0.0184</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.74</v>
+        <v>0.0174</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.96</v>
+        <v>0.0196</v>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
@@ -772,70 +772,70 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1.91</v>
+        <v>0.0191</v>
       </c>
       <c r="F4" t="n">
-        <v>2.04</v>
+        <v>0.0204</v>
       </c>
       <c r="G4" t="n">
-        <v>2.12</v>
+        <v>0.0212</v>
       </c>
       <c r="H4" t="n">
-        <v>2.08</v>
+        <v>0.0208</v>
       </c>
       <c r="I4" t="n">
-        <v>1.95</v>
+        <v>0.0195</v>
       </c>
       <c r="J4" t="n">
-        <v>2.09</v>
+        <v>0.0209</v>
       </c>
       <c r="K4" t="n">
-        <v>1.97</v>
+        <v>0.0197</v>
       </c>
       <c r="L4" t="n">
-        <v>1.93</v>
+        <v>0.0193</v>
       </c>
       <c r="M4" t="n">
-        <v>1.72</v>
+        <v>0.0172</v>
       </c>
       <c r="N4" t="n">
-        <v>1.97</v>
+        <v>0.0197</v>
       </c>
       <c r="O4" t="n">
-        <v>2.18</v>
+        <v>0.0218</v>
       </c>
       <c r="P4" t="n">
-        <v>1.98</v>
+        <v>0.0198</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.77</v>
+        <v>0.0177</v>
       </c>
       <c r="R4" t="n">
-        <v>1.99</v>
+        <v>0.0199</v>
       </c>
       <c r="S4" t="n">
-        <v>2.07</v>
+        <v>0.0207</v>
       </c>
       <c r="T4" t="n">
-        <v>1.97</v>
+        <v>0.0197</v>
       </c>
       <c r="U4" t="n">
-        <v>1.81</v>
+        <v>0.0181</v>
       </c>
       <c r="V4" t="n">
-        <v>1.9</v>
+        <v>0.019</v>
       </c>
       <c r="W4" t="n">
-        <v>2.16</v>
+        <v>0.0216</v>
       </c>
       <c r="X4" t="n">
-        <v>2.13</v>
+        <v>0.0213</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.98</v>
+        <v>0.0198</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.28</v>
+        <v>0.0228</v>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
@@ -863,70 +863,70 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4.48</v>
+        <v>0.04480000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>4.8</v>
+        <v>0.048</v>
       </c>
       <c r="G5" t="n">
-        <v>4.83</v>
+        <v>0.0483</v>
       </c>
       <c r="H5" t="n">
-        <v>5.05</v>
+        <v>0.0505</v>
       </c>
       <c r="I5" t="n">
-        <v>5.24</v>
+        <v>0.0524</v>
       </c>
       <c r="J5" t="n">
-        <v>5.61</v>
+        <v>0.0561</v>
       </c>
       <c r="K5" t="n">
-        <v>5.78</v>
+        <v>0.0578</v>
       </c>
       <c r="L5" t="n">
-        <v>6.1</v>
+        <v>0.061</v>
       </c>
       <c r="M5" t="n">
-        <v>6.11</v>
+        <v>0.0611</v>
       </c>
       <c r="N5" t="n">
-        <v>6.51</v>
+        <v>0.06509999999999999</v>
       </c>
       <c r="O5" t="n">
-        <v>6.74</v>
+        <v>0.0674</v>
       </c>
       <c r="P5" t="n">
-        <v>6.53</v>
+        <v>0.0653</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.16</v>
+        <v>0.0616</v>
       </c>
       <c r="R5" t="n">
-        <v>6.19</v>
+        <v>0.0619</v>
       </c>
       <c r="S5" t="n">
-        <v>6.66</v>
+        <v>0.06660000000000001</v>
       </c>
       <c r="T5" t="n">
-        <v>6.17</v>
+        <v>0.0617</v>
       </c>
       <c r="U5" t="n">
-        <v>5.42</v>
+        <v>0.0542</v>
       </c>
       <c r="V5" t="n">
-        <v>5.1</v>
+        <v>0.051</v>
       </c>
       <c r="W5" t="n">
-        <v>4.72</v>
+        <v>0.0472</v>
       </c>
       <c r="X5" t="n">
-        <v>5.09</v>
+        <v>0.0509</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.36</v>
+        <v>0.0336</v>
       </c>
       <c r="Z5" t="n">
-        <v>3.66</v>
+        <v>0.0366</v>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
@@ -954,70 +954,70 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2.94</v>
+        <v>0.0294</v>
       </c>
       <c r="F6" t="n">
-        <v>3.04</v>
+        <v>0.0304</v>
       </c>
       <c r="G6" t="n">
-        <v>3.21</v>
+        <v>0.0321</v>
       </c>
       <c r="H6" t="n">
-        <v>3.27</v>
+        <v>0.0327</v>
       </c>
       <c r="I6" t="n">
-        <v>3.12</v>
+        <v>0.0312</v>
       </c>
       <c r="J6" t="n">
-        <v>3.23</v>
+        <v>0.0323</v>
       </c>
       <c r="K6" t="n">
-        <v>3.1</v>
+        <v>0.031</v>
       </c>
       <c r="L6" t="n">
-        <v>3.02</v>
+        <v>0.0302</v>
       </c>
       <c r="M6" t="n">
-        <v>2.82</v>
+        <v>0.0282</v>
       </c>
       <c r="N6" t="n">
-        <v>3.14</v>
+        <v>0.0314</v>
       </c>
       <c r="O6" t="n">
-        <v>3.32</v>
+        <v>0.0332</v>
       </c>
       <c r="P6" t="n">
-        <v>3.15</v>
+        <v>0.0315</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.08</v>
+        <v>0.0308</v>
       </c>
       <c r="R6" t="n">
-        <v>3.29</v>
+        <v>0.0329</v>
       </c>
       <c r="S6" t="n">
-        <v>3.27</v>
+        <v>0.0327</v>
       </c>
       <c r="T6" t="n">
-        <v>3.12</v>
+        <v>0.0312</v>
       </c>
       <c r="U6" t="n">
-        <v>2.94</v>
+        <v>0.0294</v>
       </c>
       <c r="V6" t="n">
-        <v>3.02</v>
+        <v>0.0302</v>
       </c>
       <c r="W6" t="n">
-        <v>2.98</v>
+        <v>0.0298</v>
       </c>
       <c r="X6" t="n">
-        <v>2.81</v>
+        <v>0.0281</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.62</v>
+        <v>0.0262</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.96</v>
+        <v>0.0296</v>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
@@ -1045,70 +1045,70 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.75</v>
+        <v>0.0075</v>
       </c>
       <c r="F7" t="n">
-        <v>0.84</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>0.86</v>
+        <v>0.0086</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I7" t="n">
-        <v>0.76</v>
+        <v>0.0076</v>
       </c>
       <c r="J7" t="n">
-        <v>0.73</v>
+        <v>0.0073</v>
       </c>
       <c r="K7" t="n">
-        <v>0.76</v>
+        <v>0.0076</v>
       </c>
       <c r="L7" t="n">
-        <v>0.82</v>
+        <v>0.008199999999999999</v>
       </c>
       <c r="M7" t="n">
-        <v>0.73</v>
+        <v>0.0073</v>
       </c>
       <c r="N7" t="n">
-        <v>0.87</v>
+        <v>0.008699999999999999</v>
       </c>
       <c r="O7" t="n">
-        <v>0.86</v>
+        <v>0.0086</v>
       </c>
       <c r="P7" t="n">
-        <v>0.77</v>
+        <v>0.0077</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.7</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="R7" t="n">
-        <v>0.86</v>
+        <v>0.0086</v>
       </c>
       <c r="S7" t="n">
-        <v>0.93</v>
+        <v>0.009300000000000001</v>
       </c>
       <c r="T7" t="n">
-        <v>0.86</v>
+        <v>0.0086</v>
       </c>
       <c r="U7" t="n">
-        <v>0.8</v>
+        <v>0.008</v>
       </c>
       <c r="V7" t="n">
-        <v>0.78</v>
+        <v>0.007800000000000001</v>
       </c>
       <c r="W7" t="n">
-        <v>0.77</v>
+        <v>0.0077</v>
       </c>
       <c r="X7" t="n">
-        <v>0.63</v>
+        <v>0.0063</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.04</v>
+        <v>0.0104</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.13</v>
+        <v>0.0113</v>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
@@ -1136,70 +1136,70 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3.76</v>
+        <v>0.03759999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>3.81</v>
+        <v>0.0381</v>
       </c>
       <c r="G8" t="n">
-        <v>3.84</v>
+        <v>0.0384</v>
       </c>
       <c r="H8" t="n">
-        <v>3.69</v>
+        <v>0.0369</v>
       </c>
       <c r="I8" t="n">
-        <v>3.93</v>
+        <v>0.0393</v>
       </c>
       <c r="J8" t="n">
-        <v>3.87</v>
+        <v>0.0387</v>
       </c>
       <c r="K8" t="n">
-        <v>3.93</v>
+        <v>0.0393</v>
       </c>
       <c r="L8" t="n">
-        <v>4.11</v>
+        <v>0.0411</v>
       </c>
       <c r="M8" t="n">
-        <v>3.76</v>
+        <v>0.03759999999999999</v>
       </c>
       <c r="N8" t="n">
-        <v>3.97</v>
+        <v>0.0397</v>
       </c>
       <c r="O8" t="n">
-        <v>3.82</v>
+        <v>0.0382</v>
       </c>
       <c r="P8" t="n">
-        <v>3.56</v>
+        <v>0.0356</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.72</v>
+        <v>0.0272</v>
       </c>
       <c r="R8" t="n">
-        <v>2.52</v>
+        <v>0.0252</v>
       </c>
       <c r="S8" t="n">
-        <v>2.38</v>
+        <v>0.0238</v>
       </c>
       <c r="T8" t="n">
-        <v>2.65</v>
+        <v>0.0265</v>
       </c>
       <c r="U8" t="n">
-        <v>1.98</v>
+        <v>0.0198</v>
       </c>
       <c r="V8" t="n">
-        <v>2.07</v>
+        <v>0.0207</v>
       </c>
       <c r="W8" t="n">
-        <v>2.41</v>
+        <v>0.0241</v>
       </c>
       <c r="X8" t="n">
-        <v>3.19</v>
+        <v>0.0319</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.5</v>
+        <v>0.035</v>
       </c>
       <c r="Z8" t="n">
-        <v>3.42</v>
+        <v>0.0342</v>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
@@ -1227,70 +1227,70 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>22.91</v>
+        <v>0.2291</v>
       </c>
       <c r="F9" t="n">
-        <v>23.55</v>
+        <v>0.2355</v>
       </c>
       <c r="G9" t="n">
-        <v>24.32</v>
+        <v>0.2432</v>
       </c>
       <c r="H9" t="n">
-        <v>23.28</v>
+        <v>0.2328</v>
       </c>
       <c r="I9" t="n">
-        <v>22.94</v>
+        <v>0.2294</v>
       </c>
       <c r="J9" t="n">
-        <v>22.74</v>
+        <v>0.2274</v>
       </c>
       <c r="K9" t="n">
-        <v>23.11</v>
+        <v>0.2311</v>
       </c>
       <c r="L9" t="n">
-        <v>23.75</v>
+        <v>0.2375</v>
       </c>
       <c r="M9" t="n">
-        <v>20.93</v>
+        <v>0.2093</v>
       </c>
       <c r="N9" t="n">
-        <v>22</v>
+        <v>0.22</v>
       </c>
       <c r="O9" t="n">
-        <v>21.43</v>
+        <v>0.2143</v>
       </c>
       <c r="P9" t="n">
-        <v>19.11</v>
+        <v>0.1911</v>
       </c>
       <c r="Q9" t="n">
-        <v>16.87</v>
+        <v>0.1687</v>
       </c>
       <c r="R9" t="n">
-        <v>15.28</v>
+        <v>0.1528</v>
       </c>
       <c r="S9" t="n">
-        <v>14.53</v>
+        <v>0.1453</v>
       </c>
       <c r="T9" t="n">
-        <v>15.47</v>
+        <v>0.1547</v>
       </c>
       <c r="U9" t="n">
-        <v>11.05</v>
+        <v>0.1105</v>
       </c>
       <c r="V9" t="n">
-        <v>11.43</v>
+        <v>0.1143</v>
       </c>
       <c r="W9" t="n">
-        <v>12.62</v>
+        <v>0.1262</v>
       </c>
       <c r="X9" t="n">
-        <v>20.39</v>
+        <v>0.2039</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.41</v>
+        <v>0.1941</v>
       </c>
       <c r="Z9" t="n">
-        <v>19.16</v>
+        <v>0.1916</v>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
@@ -1318,70 +1318,70 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6.47</v>
+        <v>0.06469999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>6.45</v>
+        <v>0.0645</v>
       </c>
       <c r="G10" t="n">
-        <v>6.41</v>
+        <v>0.0641</v>
       </c>
       <c r="H10" t="n">
-        <v>6.59</v>
+        <v>0.0659</v>
       </c>
       <c r="I10" t="n">
-        <v>6.84</v>
+        <v>0.0684</v>
       </c>
       <c r="J10" t="n">
-        <v>6.97</v>
+        <v>0.0697</v>
       </c>
       <c r="K10" t="n">
-        <v>6.81</v>
+        <v>0.06809999999999999</v>
       </c>
       <c r="L10" t="n">
-        <v>6.67</v>
+        <v>0.0667</v>
       </c>
       <c r="M10" t="n">
-        <v>6.8</v>
+        <v>0.068</v>
       </c>
       <c r="N10" t="n">
-        <v>7.23</v>
+        <v>0.0723</v>
       </c>
       <c r="O10" t="n">
-        <v>7.35</v>
+        <v>0.0735</v>
       </c>
       <c r="P10" t="n">
-        <v>6.85</v>
+        <v>0.06849999999999999</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.89</v>
+        <v>0.0689</v>
       </c>
       <c r="R10" t="n">
-        <v>6.86</v>
+        <v>0.06860000000000001</v>
       </c>
       <c r="S10" t="n">
-        <v>7.02</v>
+        <v>0.0702</v>
       </c>
       <c r="T10" t="n">
-        <v>7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="U10" t="n">
-        <v>6</v>
+        <v>0.06</v>
       </c>
       <c r="V10" t="n">
-        <v>5.76</v>
+        <v>0.0576</v>
       </c>
       <c r="W10" t="n">
-        <v>5.72</v>
+        <v>0.0572</v>
       </c>
       <c r="X10" t="n">
-        <v>6.66</v>
+        <v>0.06660000000000001</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.98</v>
+        <v>0.0698</v>
       </c>
       <c r="Z10" t="n">
-        <v>7.02</v>
+        <v>0.0702</v>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
@@ -1409,70 +1409,70 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>67.64</v>
+        <v>0.6764</v>
       </c>
       <c r="F11" t="n">
-        <v>67.84999999999999</v>
+        <v>0.6785</v>
       </c>
       <c r="G11" t="n">
-        <v>67.38</v>
+        <v>0.6738</v>
       </c>
       <c r="H11" t="n">
-        <v>67.73</v>
+        <v>0.6773</v>
       </c>
       <c r="I11" t="n">
-        <v>64.34999999999999</v>
+        <v>0.6435</v>
       </c>
       <c r="J11" t="n">
-        <v>64.77</v>
+        <v>0.6476999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>64.20999999999999</v>
+        <v>0.6420999999999999</v>
       </c>
       <c r="L11" t="n">
-        <v>60.7</v>
+        <v>0.607</v>
       </c>
       <c r="M11" t="n">
-        <v>64.2</v>
+        <v>0.642</v>
       </c>
       <c r="N11" t="n">
-        <v>62.59</v>
+        <v>0.6259</v>
       </c>
       <c r="O11" t="n">
-        <v>63.98</v>
+        <v>0.6397999999999999</v>
       </c>
       <c r="P11" t="n">
-        <v>64.26000000000001</v>
+        <v>0.6426000000000001</v>
       </c>
       <c r="Q11" t="n">
-        <v>74.3</v>
+        <v>0.743</v>
       </c>
       <c r="R11" t="n">
-        <v>76.37</v>
+        <v>0.7637</v>
       </c>
       <c r="S11" t="n">
-        <v>78.3</v>
+        <v>0.7829999999999999</v>
       </c>
       <c r="T11" t="n">
-        <v>76.83</v>
+        <v>0.7683</v>
       </c>
       <c r="U11" t="n">
-        <v>81.22</v>
+        <v>0.8122</v>
       </c>
       <c r="V11" t="n">
-        <v>80.64</v>
+        <v>0.8064</v>
       </c>
       <c r="W11" t="n">
-        <v>77.48999999999999</v>
+        <v>0.7748999999999999</v>
       </c>
       <c r="X11" t="n">
-        <v>72.97</v>
+        <v>0.7297</v>
       </c>
       <c r="Y11" t="n">
-        <v>70.09999999999999</v>
+        <v>0.701</v>
       </c>
       <c r="Z11" t="n">
-        <v>70.5</v>
+        <v>0.705</v>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
@@ -1500,70 +1500,70 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>36.97</v>
+        <v>0.3697</v>
       </c>
       <c r="F12" t="n">
-        <v>37.58</v>
+        <v>0.3758</v>
       </c>
       <c r="G12" t="n">
-        <v>37.47</v>
+        <v>0.3747</v>
       </c>
       <c r="H12" t="n">
-        <v>34.25</v>
+        <v>0.3425</v>
       </c>
       <c r="I12" t="n">
-        <v>37.74</v>
+        <v>0.3774</v>
       </c>
       <c r="J12" t="n">
-        <v>37.63</v>
+        <v>0.3763</v>
       </c>
       <c r="K12" t="n">
-        <v>38.96</v>
+        <v>0.3896</v>
       </c>
       <c r="L12" t="n">
-        <v>37.37</v>
+        <v>0.3737</v>
       </c>
       <c r="M12" t="n">
-        <v>41.95</v>
+        <v>0.4195</v>
       </c>
       <c r="N12" t="n">
-        <v>38.99</v>
+        <v>0.3899</v>
       </c>
       <c r="O12" t="n">
-        <v>37.11</v>
+        <v>0.3711</v>
       </c>
       <c r="P12" t="n">
-        <v>38.37</v>
+        <v>0.3837</v>
       </c>
       <c r="Q12" t="n">
-        <v>43.26</v>
+        <v>0.4326</v>
       </c>
       <c r="R12" t="n">
-        <v>42.07</v>
+        <v>0.4207</v>
       </c>
       <c r="S12" t="n">
-        <v>39.78</v>
+        <v>0.3978</v>
       </c>
       <c r="T12" t="n">
-        <v>41.71</v>
+        <v>0.4171</v>
       </c>
       <c r="U12" t="n">
-        <v>45.4</v>
+        <v>0.454</v>
       </c>
       <c r="V12" t="n">
-        <v>49.82</v>
+        <v>0.4982</v>
       </c>
       <c r="W12" t="n">
-        <v>50.24</v>
+        <v>0.5024000000000001</v>
       </c>
       <c r="X12" t="n">
-        <v>41.5</v>
+        <v>0.415</v>
       </c>
       <c r="Y12" t="n">
-        <v>40.03</v>
+        <v>0.4003</v>
       </c>
       <c r="Z12" t="n">
-        <v>40.76</v>
+        <v>0.4076</v>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
@@ -1591,70 +1591,70 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>89.39</v>
+        <v>0.8939</v>
       </c>
       <c r="F13" t="n">
-        <v>89.59999999999999</v>
+        <v>0.8959999999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>87.19</v>
+        <v>0.8719</v>
       </c>
       <c r="H13" t="n">
-        <v>83.78</v>
+        <v>0.8378</v>
       </c>
       <c r="I13" t="n">
-        <v>84.73</v>
+        <v>0.8473000000000001</v>
       </c>
       <c r="J13" t="n">
-        <v>88.34</v>
+        <v>0.8834000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>87.83</v>
+        <v>0.8783</v>
       </c>
       <c r="L13" t="n">
-        <v>85.26000000000001</v>
+        <v>0.8526</v>
       </c>
       <c r="M13" t="n">
-        <v>79.17</v>
+        <v>0.7917000000000001</v>
       </c>
       <c r="N13" t="n">
-        <v>88.92</v>
+        <v>0.8892</v>
       </c>
       <c r="O13" t="n">
-        <v>88.95</v>
+        <v>0.8895000000000001</v>
       </c>
       <c r="P13" t="n">
-        <v>87.14</v>
+        <v>0.8714</v>
       </c>
       <c r="Q13" t="n">
-        <v>83.67</v>
+        <v>0.8367</v>
       </c>
       <c r="R13" t="n">
-        <v>83.05</v>
+        <v>0.8305</v>
       </c>
       <c r="S13" t="n">
-        <v>84.52</v>
+        <v>0.8452</v>
       </c>
       <c r="T13" t="n">
-        <v>86.77</v>
+        <v>0.8676999999999999</v>
       </c>
       <c r="U13" t="n">
-        <v>83.66</v>
+        <v>0.8366</v>
       </c>
       <c r="V13" t="n">
-        <v>82.58</v>
+        <v>0.8258</v>
       </c>
       <c r="W13" t="n">
-        <v>85.78</v>
+        <v>0.8578</v>
       </c>
       <c r="X13" t="n">
-        <v>90.39</v>
+        <v>0.9039</v>
       </c>
       <c r="Y13" t="n">
-        <v>88.64</v>
+        <v>0.8864</v>
       </c>
       <c r="Z13" t="n">
-        <v>93.06999999999999</v>
+        <v>0.9307</v>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
@@ -2266,10 +2266,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.5</v>
+        <v>0.005</v>
       </c>
       <c r="R22" t="n">
-        <v>0.5</v>
+        <v>0.005</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>2.5</v>
+        <v>0.025</v>
       </c>
       <c r="Y22" t="n">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="Z22" t="n">
-        <v>6</v>
+        <v>0.06</v>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
@@ -2321,70 +2321,70 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5.39</v>
+        <v>0.0539</v>
       </c>
       <c r="F23" t="n">
-        <v>5.04</v>
+        <v>0.0504</v>
       </c>
       <c r="G23" t="n">
-        <v>5.6</v>
+        <v>0.05599999999999999</v>
       </c>
       <c r="H23" t="n">
-        <v>6.04</v>
+        <v>0.0604</v>
       </c>
       <c r="I23" t="n">
-        <v>8.050000000000001</v>
+        <v>0.0805</v>
       </c>
       <c r="J23" t="n">
-        <v>6.77</v>
+        <v>0.0677</v>
       </c>
       <c r="K23" t="n">
-        <v>7.04</v>
+        <v>0.0704</v>
       </c>
       <c r="L23" t="n">
-        <v>7.09</v>
+        <v>0.0709</v>
       </c>
       <c r="M23" t="n">
-        <v>12.11</v>
+        <v>0.1211</v>
       </c>
       <c r="N23" t="n">
-        <v>7.55</v>
+        <v>0.0755</v>
       </c>
       <c r="O23" t="n">
-        <v>5.21</v>
+        <v>0.0521</v>
       </c>
       <c r="P23" t="n">
-        <v>4.19</v>
+        <v>0.04190000000000001</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.97</v>
+        <v>0.0397</v>
       </c>
       <c r="R23" t="n">
-        <v>3.6</v>
+        <v>0.036</v>
       </c>
       <c r="S23" t="n">
-        <v>3.06</v>
+        <v>0.0306</v>
       </c>
       <c r="T23" t="n">
-        <v>3.03</v>
+        <v>0.0303</v>
       </c>
       <c r="U23" t="n">
-        <v>3.19</v>
+        <v>0.0319</v>
       </c>
       <c r="V23" t="n">
-        <v>3.29</v>
+        <v>0.0329</v>
       </c>
       <c r="W23" t="n">
-        <v>3.22</v>
+        <v>0.0322</v>
       </c>
       <c r="X23" t="n">
-        <v>3.07</v>
+        <v>0.0307</v>
       </c>
       <c r="Y23" t="n">
-        <v>3.15</v>
+        <v>0.0315</v>
       </c>
       <c r="Z23" t="n">
-        <v>6.03</v>
+        <v>0.0603</v>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
@@ -2412,70 +2412,70 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="K24" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="N24" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="O24" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="P24" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="Q24" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="R24" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="S24" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="T24" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="V24" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="W24" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="X24" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="Y24" t="n">
-        <v>8.07</v>
+        <v>0.08070000000000001</v>
       </c>
       <c r="Z24" t="n">
-        <v>8.01</v>
+        <v>0.0801</v>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
@@ -2503,70 +2503,70 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2.42</v>
+        <v>0.0242</v>
       </c>
       <c r="F25" t="n">
-        <v>1.87</v>
+        <v>0.0187</v>
       </c>
       <c r="G25" t="n">
-        <v>2.47</v>
+        <v>0.0247</v>
       </c>
       <c r="H25" t="n">
-        <v>3.08</v>
+        <v>0.0308</v>
       </c>
       <c r="I25" t="n">
-        <v>0.62</v>
+        <v>0.0062</v>
       </c>
       <c r="J25" t="n">
-        <v>1.62</v>
+        <v>0.0162</v>
       </c>
       <c r="K25" t="n">
-        <v>2.7</v>
+        <v>0.027</v>
       </c>
       <c r="L25" t="n">
-        <v>0.43</v>
+        <v>0.0043</v>
       </c>
       <c r="M25" t="n">
-        <v>0.85</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="N25" t="n">
-        <v>0.34</v>
+        <v>0.0034</v>
       </c>
       <c r="O25" t="n">
-        <v>0.48</v>
+        <v>0.0048</v>
       </c>
       <c r="P25" t="n">
-        <v>0.45</v>
+        <v>0.004500000000000001</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.008100000000000001</v>
       </c>
       <c r="R25" t="n">
-        <v>1.92</v>
+        <v>0.0192</v>
       </c>
       <c r="S25" t="n">
-        <v>2.16</v>
+        <v>0.0216</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8</v>
+        <v>0.008</v>
       </c>
       <c r="U25" t="n">
-        <v>1.07</v>
+        <v>0.0107</v>
       </c>
       <c r="V25" t="n">
-        <v>0.98</v>
+        <v>0.0098</v>
       </c>
       <c r="W25" t="n">
-        <v>1.08</v>
+        <v>0.0108</v>
       </c>
       <c r="X25" t="n">
-        <v>2.05</v>
+        <v>0.0205</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.87</v>
+        <v>0.0187</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.74</v>
+        <v>0.0174</v>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
@@ -2594,70 +2594,70 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>20.1</v>
+        <v>0.201</v>
       </c>
       <c r="F26" t="n">
-        <v>20.08</v>
+        <v>0.2008</v>
       </c>
       <c r="G26" t="n">
-        <v>19.35</v>
+        <v>0.1935</v>
       </c>
       <c r="H26" t="n">
-        <v>19.01</v>
+        <v>0.1901</v>
       </c>
       <c r="I26" t="n">
-        <v>21.48</v>
+        <v>0.2148</v>
       </c>
       <c r="J26" t="n">
-        <v>20.68</v>
+        <v>0.2068</v>
       </c>
       <c r="K26" t="n">
-        <v>19.96</v>
+        <v>0.1996</v>
       </c>
       <c r="L26" t="n">
-        <v>19.52</v>
+        <v>0.1952</v>
       </c>
       <c r="M26" t="n">
-        <v>19.46</v>
+        <v>0.1946</v>
       </c>
       <c r="N26" t="n">
-        <v>19.32</v>
+        <v>0.1932</v>
       </c>
       <c r="O26" t="n">
-        <v>18.41</v>
+        <v>0.1841</v>
       </c>
       <c r="P26" t="n">
-        <v>18.2</v>
+        <v>0.182</v>
       </c>
       <c r="Q26" t="n">
-        <v>19.6</v>
+        <v>0.196</v>
       </c>
       <c r="R26" t="n">
-        <v>19.4</v>
+        <v>0.194</v>
       </c>
       <c r="S26" t="n">
-        <v>18.94</v>
+        <v>0.1894</v>
       </c>
       <c r="T26" t="n">
-        <v>18.51</v>
+        <v>0.1851</v>
       </c>
       <c r="U26" t="n">
-        <v>19.9</v>
+        <v>0.199</v>
       </c>
       <c r="V26" t="n">
-        <v>19.83</v>
+        <v>0.1983</v>
       </c>
       <c r="W26" t="n">
-        <v>19.2</v>
+        <v>0.192</v>
       </c>
       <c r="X26" t="n">
-        <v>17.65</v>
+        <v>0.1765</v>
       </c>
       <c r="Y26" t="n">
-        <v>21.39</v>
+        <v>0.2139</v>
       </c>
       <c r="Z26" t="n">
-        <v>22.5</v>
+        <v>0.225</v>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
@@ -2685,70 +2685,70 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.68</v>
+        <v>0.0068</v>
       </c>
       <c r="F27" t="n">
-        <v>0.68</v>
+        <v>0.0068</v>
       </c>
       <c r="G27" t="n">
-        <v>0.71</v>
+        <v>0.0071</v>
       </c>
       <c r="H27" t="n">
-        <v>0.7</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="I27" t="n">
-        <v>0.7</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="J27" t="n">
-        <v>0.89</v>
+        <v>0.0089</v>
       </c>
       <c r="K27" t="n">
-        <v>0.98</v>
+        <v>0.0098</v>
       </c>
       <c r="L27" t="n">
-        <v>1.06</v>
+        <v>0.0106</v>
       </c>
       <c r="M27" t="n">
-        <v>1.11</v>
+        <v>0.0111</v>
       </c>
       <c r="N27" t="n">
-        <v>1.36</v>
+        <v>0.0136</v>
       </c>
       <c r="O27" t="n">
-        <v>1.49</v>
+        <v>0.0149</v>
       </c>
       <c r="P27" t="n">
-        <v>1.58</v>
+        <v>0.0158</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.63</v>
+        <v>0.0163</v>
       </c>
       <c r="R27" t="n">
-        <v>1.72</v>
+        <v>0.0172</v>
       </c>
       <c r="S27" t="n">
-        <v>1.84</v>
+        <v>0.0184</v>
       </c>
       <c r="T27" t="n">
-        <v>1.87</v>
+        <v>0.0187</v>
       </c>
       <c r="U27" t="n">
-        <v>1.91</v>
+        <v>0.0191</v>
       </c>
       <c r="V27" t="n">
-        <v>1.98</v>
+        <v>0.0198</v>
       </c>
       <c r="W27" t="n">
-        <v>2.03</v>
+        <v>0.0203</v>
       </c>
       <c r="X27" t="n">
-        <v>1.55</v>
+        <v>0.0155</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.68</v>
+        <v>0.0168</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.75</v>
+        <v>0.0175</v>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
@@ -2776,70 +2776,70 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.67</v>
+        <v>0.0067</v>
       </c>
       <c r="F28" t="n">
-        <v>0.66</v>
+        <v>0.0066</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.0069</v>
       </c>
       <c r="H28" t="n">
-        <v>0.68</v>
+        <v>0.0068</v>
       </c>
       <c r="I28" t="n">
-        <v>0.68</v>
+        <v>0.0068</v>
       </c>
       <c r="J28" t="n">
-        <v>0.88</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.96</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="L28" t="n">
-        <v>1.04</v>
+        <v>0.0104</v>
       </c>
       <c r="M28" t="n">
-        <v>1.09</v>
+        <v>0.0109</v>
       </c>
       <c r="N28" t="n">
-        <v>1.35</v>
+        <v>0.0135</v>
       </c>
       <c r="O28" t="n">
-        <v>1.47</v>
+        <v>0.0147</v>
       </c>
       <c r="P28" t="n">
-        <v>1.56</v>
+        <v>0.0156</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.6</v>
+        <v>0.016</v>
       </c>
       <c r="R28" t="n">
-        <v>1.7</v>
+        <v>0.017</v>
       </c>
       <c r="S28" t="n">
-        <v>1.82</v>
+        <v>0.0182</v>
       </c>
       <c r="T28" t="n">
-        <v>1.84</v>
+        <v>0.0184</v>
       </c>
       <c r="U28" t="n">
-        <v>2.36</v>
+        <v>0.0236</v>
       </c>
       <c r="V28" t="n">
-        <v>2.43</v>
+        <v>0.0243</v>
       </c>
       <c r="W28" t="n">
-        <v>2.51</v>
+        <v>0.0251</v>
       </c>
       <c r="X28" t="n">
-        <v>1.96</v>
+        <v>0.0196</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.15</v>
+        <v>0.0215</v>
       </c>
       <c r="Z28" t="n">
-        <v>2.22</v>
+        <v>0.0222</v>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
@@ -2867,70 +2867,70 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2.32</v>
+        <v>0.0232</v>
       </c>
       <c r="F29" t="n">
-        <v>2.39</v>
+        <v>0.0239</v>
       </c>
       <c r="G29" t="n">
-        <v>2.6</v>
+        <v>0.026</v>
       </c>
       <c r="H29" t="n">
-        <v>2.77</v>
+        <v>0.0277</v>
       </c>
       <c r="I29" t="n">
-        <v>2.87</v>
+        <v>0.0287</v>
       </c>
       <c r="J29" t="n">
-        <v>3.45</v>
+        <v>0.0345</v>
       </c>
       <c r="K29" t="n">
-        <v>3.82</v>
+        <v>0.0382</v>
       </c>
       <c r="L29" t="n">
-        <v>4.05</v>
+        <v>0.0405</v>
       </c>
       <c r="M29" t="n">
-        <v>3.91</v>
+        <v>0.0391</v>
       </c>
       <c r="N29" t="n">
-        <v>4.54</v>
+        <v>0.0454</v>
       </c>
       <c r="O29" t="n">
-        <v>4.72</v>
+        <v>0.0472</v>
       </c>
       <c r="P29" t="n">
-        <v>4.94</v>
+        <v>0.04940000000000001</v>
       </c>
       <c r="Q29" t="n">
-        <v>5.04</v>
+        <v>0.0504</v>
       </c>
       <c r="R29" t="n">
-        <v>5.1</v>
+        <v>0.051</v>
       </c>
       <c r="S29" t="n">
-        <v>5.21</v>
+        <v>0.0521</v>
       </c>
       <c r="T29" t="n">
-        <v>5.16</v>
+        <v>0.0516</v>
       </c>
       <c r="U29" t="n">
-        <v>5.36</v>
+        <v>0.0536</v>
       </c>
       <c r="V29" t="n">
-        <v>4.99</v>
+        <v>0.0499</v>
       </c>
       <c r="W29" t="n">
-        <v>4.96</v>
+        <v>0.0496</v>
       </c>
       <c r="X29" t="n">
-        <v>5.07</v>
+        <v>0.0507</v>
       </c>
       <c r="Y29" t="n">
-        <v>2.88</v>
+        <v>0.0288</v>
       </c>
       <c r="Z29" t="n">
-        <v>3.2</v>
+        <v>0.032</v>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
@@ -2958,70 +2958,70 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.97</v>
+        <v>0.0097</v>
       </c>
       <c r="F30" t="n">
-        <v>0.97</v>
+        <v>0.0097</v>
       </c>
       <c r="G30" t="n">
-        <v>1.01</v>
+        <v>0.0101</v>
       </c>
       <c r="H30" t="n">
-        <v>1.02</v>
+        <v>0.0102</v>
       </c>
       <c r="I30" t="n">
-        <v>1.02</v>
+        <v>0.0102</v>
       </c>
       <c r="J30" t="n">
-        <v>1.36</v>
+        <v>0.0136</v>
       </c>
       <c r="K30" t="n">
-        <v>1.53</v>
+        <v>0.0153</v>
       </c>
       <c r="L30" t="n">
-        <v>1.7</v>
+        <v>0.017</v>
       </c>
       <c r="M30" t="n">
-        <v>1.88</v>
+        <v>0.0188</v>
       </c>
       <c r="N30" t="n">
-        <v>2.26</v>
+        <v>0.0226</v>
       </c>
       <c r="O30" t="n">
-        <v>2.47</v>
+        <v>0.0247</v>
       </c>
       <c r="P30" t="n">
-        <v>2.74</v>
+        <v>0.0274</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.81</v>
+        <v>0.0281</v>
       </c>
       <c r="R30" t="n">
-        <v>3.06</v>
+        <v>0.0306</v>
       </c>
       <c r="S30" t="n">
-        <v>3.19</v>
+        <v>0.0319</v>
       </c>
       <c r="T30" t="n">
-        <v>3.3</v>
+        <v>0.033</v>
       </c>
       <c r="U30" t="n">
-        <v>3.29</v>
+        <v>0.0329</v>
       </c>
       <c r="V30" t="n">
-        <v>3.5</v>
+        <v>0.035</v>
       </c>
       <c r="W30" t="n">
-        <v>3.42</v>
+        <v>0.0342</v>
       </c>
       <c r="X30" t="n">
-        <v>2.4</v>
+        <v>0.024</v>
       </c>
       <c r="Y30" t="n">
-        <v>2.39</v>
+        <v>0.0239</v>
       </c>
       <c r="Z30" t="n">
-        <v>2.61</v>
+        <v>0.0261</v>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
@@ -3049,70 +3049,70 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.33</v>
+        <v>0.0033</v>
       </c>
       <c r="F31" t="n">
-        <v>0.33</v>
+        <v>0.0033</v>
       </c>
       <c r="G31" t="n">
-        <v>0.35</v>
+        <v>0.0035</v>
       </c>
       <c r="H31" t="n">
-        <v>0.33</v>
+        <v>0.0033</v>
       </c>
       <c r="I31" t="n">
-        <v>0.29</v>
+        <v>0.0029</v>
       </c>
       <c r="J31" t="n">
-        <v>0.32</v>
+        <v>0.0032</v>
       </c>
       <c r="K31" t="n">
-        <v>0.29</v>
+        <v>0.0029</v>
       </c>
       <c r="L31" t="n">
-        <v>0.26</v>
+        <v>0.0026</v>
       </c>
       <c r="M31" t="n">
-        <v>0.26</v>
+        <v>0.0026</v>
       </c>
       <c r="N31" t="n">
-        <v>0.31</v>
+        <v>0.0031</v>
       </c>
       <c r="O31" t="n">
-        <v>0.33</v>
+        <v>0.0033</v>
       </c>
       <c r="P31" t="n">
-        <v>0.35</v>
+        <v>0.0035</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.41</v>
+        <v>0.004099999999999999</v>
       </c>
       <c r="R31" t="n">
-        <v>0.43</v>
+        <v>0.0043</v>
       </c>
       <c r="S31" t="n">
-        <v>0.49</v>
+        <v>0.0049</v>
       </c>
       <c r="T31" t="n">
-        <v>0.44</v>
+        <v>0.0044</v>
       </c>
       <c r="U31" t="n">
-        <v>0.43</v>
+        <v>0.0043</v>
       </c>
       <c r="V31" t="n">
-        <v>0.64</v>
+        <v>0.0064</v>
       </c>
       <c r="W31" t="n">
-        <v>0.82</v>
+        <v>0.008199999999999999</v>
       </c>
       <c r="X31" t="n">
-        <v>0.47</v>
+        <v>0.004699999999999999</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.84</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.71</v>
+        <v>0.0071</v>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
@@ -3140,70 +3140,70 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>3.59</v>
+        <v>0.0359</v>
       </c>
       <c r="F32" t="n">
-        <v>3.71</v>
+        <v>0.0371</v>
       </c>
       <c r="G32" t="n">
-        <v>3.58</v>
+        <v>0.0358</v>
       </c>
       <c r="H32" t="n">
-        <v>3.31</v>
+        <v>0.0331</v>
       </c>
       <c r="I32" t="n">
-        <v>4.03</v>
+        <v>0.0403</v>
       </c>
       <c r="J32" t="n">
-        <v>3.85</v>
+        <v>0.0385</v>
       </c>
       <c r="K32" t="n">
-        <v>3.72</v>
+        <v>0.0372</v>
       </c>
       <c r="L32" t="n">
-        <v>3.59</v>
+        <v>0.0359</v>
       </c>
       <c r="M32" t="n">
-        <v>3.3</v>
+        <v>0.033</v>
       </c>
       <c r="N32" t="n">
-        <v>3.4</v>
+        <v>0.034</v>
       </c>
       <c r="O32" t="n">
-        <v>3.38</v>
+        <v>0.0338</v>
       </c>
       <c r="P32" t="n">
-        <v>3.34</v>
+        <v>0.0334</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.53</v>
+        <v>0.0253</v>
       </c>
       <c r="R32" t="n">
-        <v>2.42</v>
+        <v>0.0242</v>
       </c>
       <c r="S32" t="n">
-        <v>2.43</v>
+        <v>0.0243</v>
       </c>
       <c r="T32" t="n">
-        <v>2.22</v>
+        <v>0.0222</v>
       </c>
       <c r="U32" t="n">
-        <v>1.64</v>
+        <v>0.0164</v>
       </c>
       <c r="V32" t="n">
-        <v>1.95</v>
+        <v>0.0195</v>
       </c>
       <c r="W32" t="n">
-        <v>2.23</v>
+        <v>0.0223</v>
       </c>
       <c r="X32" t="n">
-        <v>3.55</v>
+        <v>0.0355</v>
       </c>
       <c r="Y32" t="n">
-        <v>3.03</v>
+        <v>0.0303</v>
       </c>
       <c r="Z32" t="n">
-        <v>3.01</v>
+        <v>0.0301</v>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
@@ -3231,70 +3231,70 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>24.19</v>
+        <v>0.2419</v>
       </c>
       <c r="F33" t="n">
-        <v>25.21</v>
+        <v>0.2521</v>
       </c>
       <c r="G33" t="n">
-        <v>24.39</v>
+        <v>0.2439</v>
       </c>
       <c r="H33" t="n">
-        <v>21.52</v>
+        <v>0.2152</v>
       </c>
       <c r="I33" t="n">
-        <v>27.31</v>
+        <v>0.2731</v>
       </c>
       <c r="J33" t="n">
-        <v>26.34</v>
+        <v>0.2634</v>
       </c>
       <c r="K33" t="n">
-        <v>25.78</v>
+        <v>0.2578</v>
       </c>
       <c r="L33" t="n">
-        <v>24.56</v>
+        <v>0.2456</v>
       </c>
       <c r="M33" t="n">
-        <v>22.62</v>
+        <v>0.2262</v>
       </c>
       <c r="N33" t="n">
-        <v>23.28</v>
+        <v>0.2328</v>
       </c>
       <c r="O33" t="n">
-        <v>23.03</v>
+        <v>0.2303</v>
       </c>
       <c r="P33" t="n">
-        <v>22.15</v>
+        <v>0.2215</v>
       </c>
       <c r="Q33" t="n">
-        <v>16.24</v>
+        <v>0.1624</v>
       </c>
       <c r="R33" t="n">
-        <v>15.08</v>
+        <v>0.1508</v>
       </c>
       <c r="S33" t="n">
-        <v>15.12</v>
+        <v>0.1512</v>
       </c>
       <c r="T33" t="n">
-        <v>13.21</v>
+        <v>0.1321</v>
       </c>
       <c r="U33" t="n">
-        <v>9.359999999999999</v>
+        <v>0.09359999999999999</v>
       </c>
       <c r="V33" t="n">
-        <v>11.56</v>
+        <v>0.1156</v>
       </c>
       <c r="W33" t="n">
-        <v>13.27</v>
+        <v>0.1327</v>
       </c>
       <c r="X33" t="n">
-        <v>21.15</v>
+        <v>0.2115</v>
       </c>
       <c r="Y33" t="n">
-        <v>15.08</v>
+        <v>0.1508</v>
       </c>
       <c r="Z33" t="n">
-        <v>15.27</v>
+        <v>0.1527</v>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
@@ -3322,70 +3322,70 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4.93</v>
+        <v>0.0493</v>
       </c>
       <c r="F34" t="n">
-        <v>4.91</v>
+        <v>0.0491</v>
       </c>
       <c r="G34" t="n">
-        <v>4.92</v>
+        <v>0.0492</v>
       </c>
       <c r="H34" t="n">
-        <v>4.89</v>
+        <v>0.0489</v>
       </c>
       <c r="I34" t="n">
-        <v>5.25</v>
+        <v>0.0525</v>
       </c>
       <c r="J34" t="n">
-        <v>5.35</v>
+        <v>0.0535</v>
       </c>
       <c r="K34" t="n">
-        <v>5.3</v>
+        <v>0.053</v>
       </c>
       <c r="L34" t="n">
-        <v>5.11</v>
+        <v>0.05110000000000001</v>
       </c>
       <c r="M34" t="n">
-        <v>5.16</v>
+        <v>0.0516</v>
       </c>
       <c r="N34" t="n">
-        <v>5.12</v>
+        <v>0.0512</v>
       </c>
       <c r="O34" t="n">
-        <v>5.06</v>
+        <v>0.0506</v>
       </c>
       <c r="P34" t="n">
-        <v>5.01</v>
+        <v>0.0501</v>
       </c>
       <c r="Q34" t="n">
-        <v>4.73</v>
+        <v>0.0473</v>
       </c>
       <c r="R34" t="n">
-        <v>4.67</v>
+        <v>0.0467</v>
       </c>
       <c r="S34" t="n">
-        <v>4.63</v>
+        <v>0.0463</v>
       </c>
       <c r="T34" t="n">
-        <v>4.65</v>
+        <v>0.04650000000000001</v>
       </c>
       <c r="U34" t="n">
-        <v>4.48</v>
+        <v>0.04480000000000001</v>
       </c>
       <c r="V34" t="n">
-        <v>4.5</v>
+        <v>0.045</v>
       </c>
       <c r="W34" t="n">
-        <v>4.76</v>
+        <v>0.0476</v>
       </c>
       <c r="X34" t="n">
-        <v>5.26</v>
+        <v>0.0526</v>
       </c>
       <c r="Y34" t="n">
-        <v>5.46</v>
+        <v>0.0546</v>
       </c>
       <c r="Z34" t="n">
-        <v>5.49</v>
+        <v>0.0549</v>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
@@ -3413,70 +3413,70 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>56.46</v>
+        <v>0.5646</v>
       </c>
       <c r="F35" t="n">
-        <v>54.68</v>
+        <v>0.5468</v>
       </c>
       <c r="G35" t="n">
-        <v>55.88</v>
+        <v>0.5588000000000001</v>
       </c>
       <c r="H35" t="n">
-        <v>58.38</v>
+        <v>0.5838</v>
       </c>
       <c r="I35" t="n">
-        <v>51.88</v>
+        <v>0.5188</v>
       </c>
       <c r="J35" t="n">
-        <v>52.92</v>
+        <v>0.5292</v>
       </c>
       <c r="K35" t="n">
-        <v>54.09</v>
+        <v>0.5409</v>
       </c>
       <c r="L35" t="n">
-        <v>54.83</v>
+        <v>0.5483</v>
       </c>
       <c r="M35" t="n">
-        <v>57.35</v>
+        <v>0.5735</v>
       </c>
       <c r="N35" t="n">
-        <v>55.59</v>
+        <v>0.5559000000000001</v>
       </c>
       <c r="O35" t="n">
-        <v>55.3</v>
+        <v>0.5529999999999999</v>
       </c>
       <c r="P35" t="n">
-        <v>56.37</v>
+        <v>0.5637</v>
       </c>
       <c r="Q35" t="n">
-        <v>67.26000000000001</v>
+        <v>0.6726000000000001</v>
       </c>
       <c r="R35" t="n">
-        <v>68.81999999999999</v>
+        <v>0.6881999999999999</v>
       </c>
       <c r="S35" t="n">
-        <v>69.11</v>
+        <v>0.6911</v>
       </c>
       <c r="T35" t="n">
-        <v>71.38</v>
+        <v>0.7138</v>
       </c>
       <c r="U35" t="n">
-        <v>80.03</v>
+        <v>0.8003</v>
       </c>
       <c r="V35" t="n">
-        <v>76.34999999999999</v>
+        <v>0.7635</v>
       </c>
       <c r="W35" t="n">
-        <v>74.18000000000001</v>
+        <v>0.7418</v>
       </c>
       <c r="X35" t="n">
-        <v>63.01</v>
+        <v>0.6301</v>
       </c>
       <c r="Y35" t="n">
-        <v>67.44</v>
+        <v>0.6744</v>
       </c>
       <c r="Z35" t="n">
-        <v>67.45999999999999</v>
+        <v>0.6746</v>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
@@ -3504,70 +3504,70 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>35.04</v>
+        <v>0.3504</v>
       </c>
       <c r="F36" t="n">
-        <v>32.12</v>
+        <v>0.3212</v>
       </c>
       <c r="G36" t="n">
-        <v>32.43</v>
+        <v>0.3243</v>
       </c>
       <c r="H36" t="n">
-        <v>34.31</v>
+        <v>0.3431</v>
       </c>
       <c r="I36" t="n">
-        <v>34.36</v>
+        <v>0.3436</v>
       </c>
       <c r="J36" t="n">
-        <v>33.94</v>
+        <v>0.3394</v>
       </c>
       <c r="K36" t="n">
-        <v>32.82</v>
+        <v>0.3282</v>
       </c>
       <c r="L36" t="n">
-        <v>33.46</v>
+        <v>0.3346</v>
       </c>
       <c r="M36" t="n">
-        <v>38.19</v>
+        <v>0.3819</v>
       </c>
       <c r="N36" t="n">
-        <v>35.82</v>
+        <v>0.3582</v>
       </c>
       <c r="O36" t="n">
-        <v>35.82</v>
+        <v>0.3582</v>
       </c>
       <c r="P36" t="n">
-        <v>36.44</v>
+        <v>0.3644</v>
       </c>
       <c r="Q36" t="n">
-        <v>42.54</v>
+        <v>0.4254</v>
       </c>
       <c r="R36" t="n">
-        <v>40.63</v>
+        <v>0.4063000000000001</v>
       </c>
       <c r="S36" t="n">
-        <v>40.84</v>
+        <v>0.4084</v>
       </c>
       <c r="T36" t="n">
-        <v>42.36</v>
+        <v>0.4236</v>
       </c>
       <c r="U36" t="n">
-        <v>44.89</v>
+        <v>0.4489</v>
       </c>
       <c r="V36" t="n">
-        <v>41.92</v>
+        <v>0.4192</v>
       </c>
       <c r="W36" t="n">
-        <v>41.29</v>
+        <v>0.4129</v>
       </c>
       <c r="X36" t="n">
-        <v>38.16</v>
+        <v>0.3815999999999999</v>
       </c>
       <c r="Y36" t="n">
-        <v>42.25</v>
+        <v>0.4225</v>
       </c>
       <c r="Z36" t="n">
-        <v>40.4</v>
+        <v>0.404</v>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
@@ -3595,70 +3595,70 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>98.04000000000001</v>
+        <v>0.9804</v>
       </c>
       <c r="F37" t="n">
-        <v>93.15000000000001</v>
+        <v>0.9315000000000001</v>
       </c>
       <c r="G37" t="n">
-        <v>90.48</v>
+        <v>0.9048</v>
       </c>
       <c r="H37" t="n">
-        <v>89.66</v>
+        <v>0.8966</v>
       </c>
       <c r="I37" t="n">
-        <v>86.75</v>
+        <v>0.8675</v>
       </c>
       <c r="J37" t="n">
-        <v>87.64</v>
+        <v>0.8764</v>
       </c>
       <c r="K37" t="n">
-        <v>85.68000000000001</v>
+        <v>0.8568000000000001</v>
       </c>
       <c r="L37" t="n">
-        <v>84.90000000000001</v>
+        <v>0.8490000000000001</v>
       </c>
       <c r="M37" t="n">
-        <v>77.61</v>
+        <v>0.7761</v>
       </c>
       <c r="N37" t="n">
-        <v>83.18000000000001</v>
+        <v>0.8318000000000001</v>
       </c>
       <c r="O37" t="n">
-        <v>84.79000000000001</v>
+        <v>0.8479000000000001</v>
       </c>
       <c r="P37" t="n">
-        <v>83.66</v>
+        <v>0.8366</v>
       </c>
       <c r="Q37" t="n">
-        <v>80.04000000000001</v>
+        <v>0.8004000000000001</v>
       </c>
       <c r="R37" t="n">
-        <v>83.29000000000001</v>
+        <v>0.8329000000000001</v>
       </c>
       <c r="S37" t="n">
-        <v>86</v>
+        <v>0.86</v>
       </c>
       <c r="T37" t="n">
-        <v>81.15000000000001</v>
+        <v>0.8115000000000001</v>
       </c>
       <c r="U37" t="n">
-        <v>82.95</v>
+        <v>0.8295</v>
       </c>
       <c r="V37" t="n">
-        <v>83.03</v>
+        <v>0.8303</v>
       </c>
       <c r="W37" t="n">
-        <v>87.65000000000001</v>
+        <v>0.8765000000000001</v>
       </c>
       <c r="X37" t="n">
-        <v>94.91</v>
+        <v>0.9490999999999999</v>
       </c>
       <c r="Y37" t="n">
-        <v>96.37</v>
+        <v>0.9637</v>
       </c>
       <c r="Z37" t="n">
-        <v>92.52</v>
+        <v>0.9251999999999999</v>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
@@ -4270,34 +4270,34 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.5</v>
+        <v>0.005</v>
       </c>
       <c r="R46" t="n">
-        <v>0.5</v>
+        <v>0.005</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>3.08</v>
+        <v>0.0308</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>2.43</v>
+        <v>0.0243</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>2.5</v>
+        <v>0.025</v>
       </c>
       <c r="Y46" t="n">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="Z46" t="n">
-        <v>5.61</v>
+        <v>0.0561</v>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
@@ -4325,70 +4325,70 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5.21</v>
+        <v>0.0521</v>
       </c>
       <c r="F47" t="n">
-        <v>5.17</v>
+        <v>0.0517</v>
       </c>
       <c r="G47" t="n">
-        <v>5.41</v>
+        <v>0.0541</v>
       </c>
       <c r="H47" t="n">
-        <v>7.01</v>
+        <v>0.0701</v>
       </c>
       <c r="I47" t="n">
-        <v>7.32</v>
+        <v>0.0732</v>
       </c>
       <c r="J47" t="n">
-        <v>7.89</v>
+        <v>0.0789</v>
       </c>
       <c r="K47" t="n">
-        <v>7.69</v>
+        <v>0.07690000000000001</v>
       </c>
       <c r="L47" t="n">
-        <v>7.43</v>
+        <v>0.07429999999999999</v>
       </c>
       <c r="M47" t="n">
-        <v>8.529999999999999</v>
+        <v>0.08529999999999999</v>
       </c>
       <c r="N47" t="n">
-        <v>8.23</v>
+        <v>0.0823</v>
       </c>
       <c r="O47" t="n">
-        <v>5.85</v>
+        <v>0.0585</v>
       </c>
       <c r="P47" t="n">
-        <v>4.69</v>
+        <v>0.0469</v>
       </c>
       <c r="Q47" t="n">
-        <v>3.47</v>
+        <v>0.0347</v>
       </c>
       <c r="R47" t="n">
-        <v>3.08</v>
+        <v>0.0308</v>
       </c>
       <c r="S47" t="n">
-        <v>3.25</v>
+        <v>0.0325</v>
       </c>
       <c r="T47" t="n">
         <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>3.5</v>
+        <v>0.035</v>
       </c>
       <c r="V47" t="n">
-        <v>3.08</v>
+        <v>0.0308</v>
       </c>
       <c r="W47" t="n">
-        <v>3.84</v>
+        <v>0.0384</v>
       </c>
       <c r="X47" t="n">
-        <v>3.81</v>
+        <v>0.0381</v>
       </c>
       <c r="Y47" t="n">
-        <v>3.21</v>
+        <v>0.0321</v>
       </c>
       <c r="Z47" t="n">
-        <v>6.05</v>
+        <v>0.0605</v>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
@@ -4416,70 +4416,70 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4.1</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>4.1</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="G48" t="n">
-        <v>4.1</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="H48" t="n">
-        <v>4.1</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="I48" t="n">
-        <v>4.1</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="J48" t="n">
-        <v>4.1</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="K48" t="n">
-        <v>4.1</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="L48" t="n">
-        <v>4.1</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="M48" t="n">
-        <v>4.1</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="N48" t="n">
-        <v>4.1</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="O48" t="n">
-        <v>4.1</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="P48" t="n">
-        <v>4.1</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="Q48" t="n">
-        <v>4.1</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="R48" t="n">
-        <v>4.22</v>
+        <v>0.04219999999999999</v>
       </c>
       <c r="S48" t="n">
-        <v>4.1</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="T48" t="n">
-        <v>4.1</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="U48" t="n">
-        <v>4.1</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="V48" t="n">
-        <v>8.32</v>
+        <v>0.0832</v>
       </c>
       <c r="W48" t="n">
-        <v>4.16</v>
+        <v>0.0416</v>
       </c>
       <c r="X48" t="n">
-        <v>4.1</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="Y48" t="n">
-        <v>8.1</v>
+        <v>0.081</v>
       </c>
       <c r="Z48" t="n">
-        <v>8.130000000000001</v>
+        <v>0.08130000000000001</v>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
@@ -4507,70 +4507,70 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="F49" t="n">
-        <v>0.93</v>
+        <v>0.009300000000000001</v>
       </c>
       <c r="G49" t="n">
-        <v>0.68</v>
+        <v>0.0068</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="I49" t="n">
-        <v>1.28</v>
+        <v>0.0128</v>
       </c>
       <c r="J49" t="n">
-        <v>1.23</v>
+        <v>0.0123</v>
       </c>
       <c r="K49" t="n">
-        <v>1.34</v>
+        <v>0.0134</v>
       </c>
       <c r="L49" t="n">
-        <v>1.58</v>
+        <v>0.0158</v>
       </c>
       <c r="M49" t="n">
-        <v>9.779999999999999</v>
+        <v>0.0978</v>
       </c>
       <c r="N49" t="n">
-        <v>7.59</v>
+        <v>0.0759</v>
       </c>
       <c r="O49" t="n">
-        <v>5.54</v>
+        <v>0.0554</v>
       </c>
       <c r="P49" t="n">
-        <v>2.41</v>
+        <v>0.0241</v>
       </c>
       <c r="Q49" t="n">
-        <v>4.27</v>
+        <v>0.04269999999999999</v>
       </c>
       <c r="R49" t="n">
-        <v>6</v>
+        <v>0.06</v>
       </c>
       <c r="S49" t="n">
-        <v>4.55</v>
+        <v>0.0455</v>
       </c>
       <c r="T49" t="n">
-        <v>3.19</v>
+        <v>0.0319</v>
       </c>
       <c r="U49" t="n">
-        <v>0.91</v>
+        <v>0.0091</v>
       </c>
       <c r="V49" t="n">
-        <v>1.97</v>
+        <v>0.0197</v>
       </c>
       <c r="W49" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.005600000000000001</v>
       </c>
       <c r="X49" t="n">
-        <v>1.35</v>
+        <v>0.0135</v>
       </c>
       <c r="Y49" t="n">
-        <v>1.09</v>
+        <v>0.0109</v>
       </c>
       <c r="Z49" t="n">
-        <v>3.03</v>
+        <v>0.0303</v>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
@@ -4598,70 +4598,70 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>21.4</v>
+        <v>0.214</v>
       </c>
       <c r="F50" t="n">
-        <v>21.83</v>
+        <v>0.2183</v>
       </c>
       <c r="G50" t="n">
-        <v>20.67</v>
+        <v>0.2067</v>
       </c>
       <c r="H50" t="n">
-        <v>20.52</v>
+        <v>0.2052</v>
       </c>
       <c r="I50" t="n">
-        <v>21.95</v>
+        <v>0.2195</v>
       </c>
       <c r="J50" t="n">
-        <v>21.88</v>
+        <v>0.2188</v>
       </c>
       <c r="K50" t="n">
-        <v>21.61</v>
+        <v>0.2161</v>
       </c>
       <c r="L50" t="n">
-        <v>21.61</v>
+        <v>0.2161</v>
       </c>
       <c r="M50" t="n">
-        <v>19.27</v>
+        <v>0.1927</v>
       </c>
       <c r="N50" t="n">
-        <v>18.9</v>
+        <v>0.189</v>
       </c>
       <c r="O50" t="n">
-        <v>18.42</v>
+        <v>0.1842</v>
       </c>
       <c r="P50" t="n">
-        <v>19.29</v>
+        <v>0.1929</v>
       </c>
       <c r="Q50" t="n">
-        <v>19.74</v>
+        <v>0.1974</v>
       </c>
       <c r="R50" t="n">
-        <v>19.9</v>
+        <v>0.199</v>
       </c>
       <c r="S50" t="n">
-        <v>18.18</v>
+        <v>0.1818</v>
       </c>
       <c r="T50" t="n">
-        <v>18.07</v>
+        <v>0.1807</v>
       </c>
       <c r="U50" t="n">
-        <v>16.78</v>
+        <v>0.1678</v>
       </c>
       <c r="V50" t="n">
-        <v>16.75</v>
+        <v>0.1675</v>
       </c>
       <c r="W50" t="n">
-        <v>16.71</v>
+        <v>0.1671</v>
       </c>
       <c r="X50" t="n">
-        <v>16.07</v>
+        <v>0.1607</v>
       </c>
       <c r="Y50" t="n">
-        <v>19.73</v>
+        <v>0.1973</v>
       </c>
       <c r="Z50" t="n">
-        <v>19.33</v>
+        <v>0.1933</v>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
@@ -4689,70 +4689,70 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1.49</v>
+        <v>0.0149</v>
       </c>
       <c r="F51" t="n">
-        <v>1.47</v>
+        <v>0.0147</v>
       </c>
       <c r="G51" t="n">
-        <v>1.47</v>
+        <v>0.0147</v>
       </c>
       <c r="H51" t="n">
-        <v>1.48</v>
+        <v>0.0148</v>
       </c>
       <c r="I51" t="n">
-        <v>1.56</v>
+        <v>0.0156</v>
       </c>
       <c r="J51" t="n">
-        <v>1.68</v>
+        <v>0.0168</v>
       </c>
       <c r="K51" t="n">
-        <v>1.76</v>
+        <v>0.0176</v>
       </c>
       <c r="L51" t="n">
-        <v>1.96</v>
+        <v>0.0196</v>
       </c>
       <c r="M51" t="n">
-        <v>2.02</v>
+        <v>0.0202</v>
       </c>
       <c r="N51" t="n">
-        <v>2.22</v>
+        <v>0.0222</v>
       </c>
       <c r="O51" t="n">
-        <v>2.3</v>
+        <v>0.023</v>
       </c>
       <c r="P51" t="n">
-        <v>2.42</v>
+        <v>0.0242</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.77</v>
+        <v>0.0277</v>
       </c>
       <c r="R51" t="n">
-        <v>2.84</v>
+        <v>0.0284</v>
       </c>
       <c r="S51" t="n">
-        <v>2.94</v>
+        <v>0.0294</v>
       </c>
       <c r="T51" t="n">
-        <v>2.98</v>
+        <v>0.0298</v>
       </c>
       <c r="U51" t="n">
-        <v>3.05</v>
+        <v>0.0305</v>
       </c>
       <c r="V51" t="n">
-        <v>2.64</v>
+        <v>0.0264</v>
       </c>
       <c r="W51" t="n">
-        <v>2.27</v>
+        <v>0.0227</v>
       </c>
       <c r="X51" t="n">
-        <v>1.92</v>
+        <v>0.0192</v>
       </c>
       <c r="Y51" t="n">
-        <v>1.75</v>
+        <v>0.0175</v>
       </c>
       <c r="Z51" t="n">
-        <v>1.54</v>
+        <v>0.0154</v>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
@@ -4780,70 +4780,70 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1.42</v>
+        <v>0.0142</v>
       </c>
       <c r="F52" t="n">
-        <v>1.4</v>
+        <v>0.014</v>
       </c>
       <c r="G52" t="n">
-        <v>1.39</v>
+        <v>0.0139</v>
       </c>
       <c r="H52" t="n">
-        <v>1.41</v>
+        <v>0.0141</v>
       </c>
       <c r="I52" t="n">
-        <v>1.48</v>
+        <v>0.0148</v>
       </c>
       <c r="J52" t="n">
-        <v>1.59</v>
+        <v>0.0159</v>
       </c>
       <c r="K52" t="n">
-        <v>1.68</v>
+        <v>0.0168</v>
       </c>
       <c r="L52" t="n">
-        <v>1.87</v>
+        <v>0.0187</v>
       </c>
       <c r="M52" t="n">
-        <v>1.92</v>
+        <v>0.0192</v>
       </c>
       <c r="N52" t="n">
-        <v>2.09</v>
+        <v>0.0209</v>
       </c>
       <c r="O52" t="n">
-        <v>2.16</v>
+        <v>0.0216</v>
       </c>
       <c r="P52" t="n">
-        <v>2.27</v>
+        <v>0.0227</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.62</v>
+        <v>0.0262</v>
       </c>
       <c r="R52" t="n">
-        <v>2.67</v>
+        <v>0.0267</v>
       </c>
       <c r="S52" t="n">
-        <v>2.84</v>
+        <v>0.0284</v>
       </c>
       <c r="T52" t="n">
-        <v>2.87</v>
+        <v>0.0287</v>
       </c>
       <c r="U52" t="n">
-        <v>2.94</v>
+        <v>0.0294</v>
       </c>
       <c r="V52" t="n">
-        <v>2.5</v>
+        <v>0.025</v>
       </c>
       <c r="W52" t="n">
-        <v>2.15</v>
+        <v>0.0215</v>
       </c>
       <c r="X52" t="n">
-        <v>1.8</v>
+        <v>0.018</v>
       </c>
       <c r="Y52" t="n">
-        <v>1.63</v>
+        <v>0.0163</v>
       </c>
       <c r="Z52" t="n">
-        <v>1.42</v>
+        <v>0.0142</v>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
@@ -4871,70 +4871,70 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>3.93</v>
+        <v>0.0393</v>
       </c>
       <c r="F53" t="n">
-        <v>4.34</v>
+        <v>0.0434</v>
       </c>
       <c r="G53" t="n">
-        <v>4.56</v>
+        <v>0.04559999999999999</v>
       </c>
       <c r="H53" t="n">
-        <v>5.08</v>
+        <v>0.0508</v>
       </c>
       <c r="I53" t="n">
-        <v>5.19</v>
+        <v>0.0519</v>
       </c>
       <c r="J53" t="n">
-        <v>5.63</v>
+        <v>0.0563</v>
       </c>
       <c r="K53" t="n">
-        <v>5.7</v>
+        <v>0.057</v>
       </c>
       <c r="L53" t="n">
-        <v>5.9</v>
+        <v>0.059</v>
       </c>
       <c r="M53" t="n">
-        <v>5.99</v>
+        <v>0.0599</v>
       </c>
       <c r="N53" t="n">
-        <v>6.38</v>
+        <v>0.0638</v>
       </c>
       <c r="O53" t="n">
-        <v>6.4</v>
+        <v>0.064</v>
       </c>
       <c r="P53" t="n">
-        <v>6.8</v>
+        <v>0.068</v>
       </c>
       <c r="Q53" t="n">
-        <v>6.54</v>
+        <v>0.0654</v>
       </c>
       <c r="R53" t="n">
-        <v>6.5</v>
+        <v>0.065</v>
       </c>
       <c r="S53" t="n">
-        <v>6.6</v>
+        <v>0.066</v>
       </c>
       <c r="T53" t="n">
-        <v>6.32</v>
+        <v>0.06320000000000001</v>
       </c>
       <c r="U53" t="n">
-        <v>6.22</v>
+        <v>0.0622</v>
       </c>
       <c r="V53" t="n">
-        <v>5.61</v>
+        <v>0.0561</v>
       </c>
       <c r="W53" t="n">
-        <v>4.11</v>
+        <v>0.0411</v>
       </c>
       <c r="X53" t="n">
-        <v>4.17</v>
+        <v>0.0417</v>
       </c>
       <c r="Y53" t="n">
-        <v>2.18</v>
+        <v>0.0218</v>
       </c>
       <c r="Z53" t="n">
-        <v>2.4</v>
+        <v>0.024</v>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
@@ -4962,70 +4962,70 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1.97</v>
+        <v>0.0197</v>
       </c>
       <c r="F54" t="n">
-        <v>1.97</v>
+        <v>0.0197</v>
       </c>
       <c r="G54" t="n">
-        <v>1.98</v>
+        <v>0.0198</v>
       </c>
       <c r="H54" t="n">
-        <v>2.04</v>
+        <v>0.0204</v>
       </c>
       <c r="I54" t="n">
-        <v>2.14</v>
+        <v>0.0214</v>
       </c>
       <c r="J54" t="n">
-        <v>2.27</v>
+        <v>0.0227</v>
       </c>
       <c r="K54" t="n">
-        <v>2.45</v>
+        <v>0.0245</v>
       </c>
       <c r="L54" t="n">
-        <v>2.77</v>
+        <v>0.0277</v>
       </c>
       <c r="M54" t="n">
-        <v>2.81</v>
+        <v>0.0281</v>
       </c>
       <c r="N54" t="n">
-        <v>3.04</v>
+        <v>0.0304</v>
       </c>
       <c r="O54" t="n">
-        <v>3.16</v>
+        <v>0.0316</v>
       </c>
       <c r="P54" t="n">
-        <v>3.46</v>
+        <v>0.0346</v>
       </c>
       <c r="Q54" t="n">
-        <v>3.7</v>
+        <v>0.03700000000000001</v>
       </c>
       <c r="R54" t="n">
-        <v>3.81</v>
+        <v>0.0381</v>
       </c>
       <c r="S54" t="n">
-        <v>3.94</v>
+        <v>0.0394</v>
       </c>
       <c r="T54" t="n">
-        <v>4.12</v>
+        <v>0.0412</v>
       </c>
       <c r="U54" t="n">
-        <v>4.25</v>
+        <v>0.0425</v>
       </c>
       <c r="V54" t="n">
-        <v>3.56</v>
+        <v>0.0356</v>
       </c>
       <c r="W54" t="n">
-        <v>3.03</v>
+        <v>0.0303</v>
       </c>
       <c r="X54" t="n">
-        <v>2.38</v>
+        <v>0.0238</v>
       </c>
       <c r="Y54" t="n">
-        <v>2.27</v>
+        <v>0.0227</v>
       </c>
       <c r="Z54" t="n">
-        <v>1.8</v>
+        <v>0.018</v>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
@@ -5053,70 +5053,70 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.74</v>
+        <v>0.0074</v>
       </c>
       <c r="F55" t="n">
-        <v>0.63</v>
+        <v>0.0063</v>
       </c>
       <c r="G55" t="n">
-        <v>0.62</v>
+        <v>0.0062</v>
       </c>
       <c r="H55" t="n">
-        <v>0.66</v>
+        <v>0.0066</v>
       </c>
       <c r="I55" t="n">
-        <v>0.61</v>
+        <v>0.0061</v>
       </c>
       <c r="J55" t="n">
-        <v>0.61</v>
+        <v>0.0061</v>
       </c>
       <c r="K55" t="n">
-        <v>0.62</v>
+        <v>0.0062</v>
       </c>
       <c r="L55" t="n">
-        <v>0.53</v>
+        <v>0.0053</v>
       </c>
       <c r="M55" t="n">
-        <v>0.49</v>
+        <v>0.0049</v>
       </c>
       <c r="N55" t="n">
-        <v>0.57</v>
+        <v>0.005699999999999999</v>
       </c>
       <c r="O55" t="n">
-        <v>0.58</v>
+        <v>0.0058</v>
       </c>
       <c r="P55" t="n">
-        <v>0.7</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.73</v>
+        <v>0.0073</v>
       </c>
       <c r="R55" t="n">
-        <v>0.9</v>
+        <v>0.009000000000000001</v>
       </c>
       <c r="S55" t="n">
-        <v>0.9</v>
+        <v>0.009000000000000001</v>
       </c>
       <c r="T55" t="n">
-        <v>1.03</v>
+        <v>0.0103</v>
       </c>
       <c r="U55" t="n">
-        <v>0.95</v>
+        <v>0.0095</v>
       </c>
       <c r="V55" t="n">
-        <v>0.53</v>
+        <v>0.0053</v>
       </c>
       <c r="W55" t="n">
-        <v>0.55</v>
+        <v>0.005500000000000001</v>
       </c>
       <c r="X55" t="n">
-        <v>0.52</v>
+        <v>0.0052</v>
       </c>
       <c r="Y55" t="n">
-        <v>1.25</v>
+        <v>0.0125</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.78</v>
+        <v>0.007800000000000001</v>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
@@ -5144,70 +5144,70 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>2.51</v>
+        <v>0.0251</v>
       </c>
       <c r="F56" t="n">
-        <v>2.54</v>
+        <v>0.0254</v>
       </c>
       <c r="G56" t="n">
-        <v>2.46</v>
+        <v>0.0246</v>
       </c>
       <c r="H56" t="n">
-        <v>2.49</v>
+        <v>0.0249</v>
       </c>
       <c r="I56" t="n">
-        <v>2.6</v>
+        <v>0.026</v>
       </c>
       <c r="J56" t="n">
-        <v>2.64</v>
+        <v>0.0264</v>
       </c>
       <c r="K56" t="n">
-        <v>2.59</v>
+        <v>0.0259</v>
       </c>
       <c r="L56" t="n">
-        <v>2.67</v>
+        <v>0.0267</v>
       </c>
       <c r="M56" t="n">
-        <v>2.46</v>
+        <v>0.0246</v>
       </c>
       <c r="N56" t="n">
-        <v>2.48</v>
+        <v>0.0248</v>
       </c>
       <c r="O56" t="n">
-        <v>2.44</v>
+        <v>0.0244</v>
       </c>
       <c r="P56" t="n">
-        <v>2.29</v>
+        <v>0.0229</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.43</v>
+        <v>0.0143</v>
       </c>
       <c r="R56" t="n">
-        <v>1.51</v>
+        <v>0.0151</v>
       </c>
       <c r="S56" t="n">
-        <v>1.48</v>
+        <v>0.0148</v>
       </c>
       <c r="T56" t="n">
-        <v>1.46</v>
+        <v>0.0146</v>
       </c>
       <c r="U56" t="n">
-        <v>0.54</v>
+        <v>0.0054</v>
       </c>
       <c r="V56" t="n">
-        <v>0.88</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="W56" t="n">
-        <v>1.38</v>
+        <v>0.0138</v>
       </c>
       <c r="X56" t="n">
-        <v>2.63</v>
+        <v>0.0263</v>
       </c>
       <c r="Y56" t="n">
-        <v>2.42</v>
+        <v>0.0242</v>
       </c>
       <c r="Z56" t="n">
-        <v>2.51</v>
+        <v>0.0251</v>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
@@ -5235,70 +5235,70 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>15.81</v>
+        <v>0.1581</v>
       </c>
       <c r="F57" t="n">
-        <v>16.38</v>
+        <v>0.1638</v>
       </c>
       <c r="G57" t="n">
-        <v>16.29</v>
+        <v>0.1629</v>
       </c>
       <c r="H57" t="n">
-        <v>16.16</v>
+        <v>0.1616</v>
       </c>
       <c r="I57" t="n">
-        <v>16.84</v>
+        <v>0.1684</v>
       </c>
       <c r="J57" t="n">
-        <v>17.17</v>
+        <v>0.1717</v>
       </c>
       <c r="K57" t="n">
-        <v>16.97</v>
+        <v>0.1697</v>
       </c>
       <c r="L57" t="n">
-        <v>17.11</v>
+        <v>0.1711</v>
       </c>
       <c r="M57" t="n">
-        <v>16.39</v>
+        <v>0.1639</v>
       </c>
       <c r="N57" t="n">
-        <v>16.56</v>
+        <v>0.1656</v>
       </c>
       <c r="O57" t="n">
-        <v>16.31</v>
+        <v>0.1631</v>
       </c>
       <c r="P57" t="n">
-        <v>15.23</v>
+        <v>0.1523</v>
       </c>
       <c r="Q57" t="n">
-        <v>10.42</v>
+        <v>0.1042</v>
       </c>
       <c r="R57" t="n">
-        <v>10.27</v>
+        <v>0.1027</v>
       </c>
       <c r="S57" t="n">
-        <v>10.03</v>
+        <v>0.1003</v>
       </c>
       <c r="T57" t="n">
-        <v>9.65</v>
+        <v>0.0965</v>
       </c>
       <c r="U57" t="n">
-        <v>2.86</v>
+        <v>0.0286</v>
       </c>
       <c r="V57" t="n">
-        <v>5.4</v>
+        <v>0.05400000000000001</v>
       </c>
       <c r="W57" t="n">
-        <v>8.74</v>
+        <v>0.08740000000000001</v>
       </c>
       <c r="X57" t="n">
-        <v>16.94</v>
+        <v>0.1694</v>
       </c>
       <c r="Y57" t="n">
-        <v>14</v>
+        <v>0.14</v>
       </c>
       <c r="Z57" t="n">
-        <v>14.73</v>
+        <v>0.1473</v>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
@@ -5326,70 +5326,70 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>4.24</v>
+        <v>0.0424</v>
       </c>
       <c r="F58" t="n">
-        <v>4.15</v>
+        <v>0.0415</v>
       </c>
       <c r="G58" t="n">
-        <v>4.02</v>
+        <v>0.04019999999999999</v>
       </c>
       <c r="H58" t="n">
-        <v>4.01</v>
+        <v>0.0401</v>
       </c>
       <c r="I58" t="n">
-        <v>4.58</v>
+        <v>0.0458</v>
       </c>
       <c r="J58" t="n">
-        <v>4.64</v>
+        <v>0.0464</v>
       </c>
       <c r="K58" t="n">
-        <v>4.58</v>
+        <v>0.0458</v>
       </c>
       <c r="L58" t="n">
-        <v>4.68</v>
+        <v>0.04679999999999999</v>
       </c>
       <c r="M58" t="n">
-        <v>4.81</v>
+        <v>0.0481</v>
       </c>
       <c r="N58" t="n">
-        <v>4.8</v>
+        <v>0.048</v>
       </c>
       <c r="O58" t="n">
-        <v>4.7</v>
+        <v>0.047</v>
       </c>
       <c r="P58" t="n">
-        <v>4.51</v>
+        <v>0.0451</v>
       </c>
       <c r="Q58" t="n">
-        <v>4.67</v>
+        <v>0.0467</v>
       </c>
       <c r="R58" t="n">
-        <v>4.76</v>
+        <v>0.0476</v>
       </c>
       <c r="S58" t="n">
-        <v>4.85</v>
+        <v>0.04849999999999999</v>
       </c>
       <c r="T58" t="n">
-        <v>4.9</v>
+        <v>0.049</v>
       </c>
       <c r="U58" t="n">
-        <v>4.5</v>
+        <v>0.045</v>
       </c>
       <c r="V58" t="n">
-        <v>4.32</v>
+        <v>0.0432</v>
       </c>
       <c r="W58" t="n">
-        <v>4.47</v>
+        <v>0.0447</v>
       </c>
       <c r="X58" t="n">
-        <v>4.88</v>
+        <v>0.0488</v>
       </c>
       <c r="Y58" t="n">
-        <v>4.92</v>
+        <v>0.0492</v>
       </c>
       <c r="Z58" t="n">
-        <v>4.85</v>
+        <v>0.04849999999999999</v>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
@@ -5417,70 +5417,70 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>70.05</v>
+        <v>0.7005</v>
       </c>
       <c r="F59" t="n">
-        <v>68.98999999999999</v>
+        <v>0.6899</v>
       </c>
       <c r="G59" t="n">
-        <v>69.43000000000001</v>
+        <v>0.6943</v>
       </c>
       <c r="H59" t="n">
-        <v>69.13</v>
+        <v>0.6912999999999999</v>
       </c>
       <c r="I59" t="n">
-        <v>68.40000000000001</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="J59" t="n">
-        <v>67.39</v>
+        <v>0.6739000000000001</v>
       </c>
       <c r="K59" t="n">
-        <v>67.39</v>
+        <v>0.6739000000000001</v>
       </c>
       <c r="L59" t="n">
-        <v>66.25</v>
+        <v>0.6625</v>
       </c>
       <c r="M59" t="n">
-        <v>68.63</v>
+        <v>0.6862999999999999</v>
       </c>
       <c r="N59" t="n">
-        <v>68.05</v>
+        <v>0.6805</v>
       </c>
       <c r="O59" t="n">
-        <v>68.59</v>
+        <v>0.6859000000000001</v>
       </c>
       <c r="P59" t="n">
-        <v>70.2</v>
+        <v>0.7020000000000001</v>
       </c>
       <c r="Q59" t="n">
-        <v>81.18000000000001</v>
+        <v>0.8118000000000001</v>
       </c>
       <c r="R59" t="n">
-        <v>80.47</v>
+        <v>0.8047</v>
       </c>
       <c r="S59" t="n">
-        <v>81.20999999999999</v>
+        <v>0.8120999999999999</v>
       </c>
       <c r="T59" t="n">
-        <v>81.56999999999999</v>
+        <v>0.8157</v>
       </c>
       <c r="U59" t="n">
-        <v>93.31</v>
+        <v>0.9331</v>
       </c>
       <c r="V59" t="n">
-        <v>88.98999999999999</v>
+        <v>0.8898999999999999</v>
       </c>
       <c r="W59" t="n">
-        <v>82.81</v>
+        <v>0.8281000000000001</v>
       </c>
       <c r="X59" t="n">
-        <v>73.15000000000001</v>
+        <v>0.7315</v>
       </c>
       <c r="Y59" t="n">
-        <v>73.16</v>
+        <v>0.7315999999999999</v>
       </c>
       <c r="Z59" t="n">
-        <v>71.81999999999999</v>
+        <v>0.7181999999999999</v>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
@@ -5508,70 +5508,70 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>44.61</v>
+        <v>0.4461</v>
       </c>
       <c r="F60" t="n">
-        <v>43.83</v>
+        <v>0.4383</v>
       </c>
       <c r="G60" t="n">
-        <v>43.73</v>
+        <v>0.4373</v>
       </c>
       <c r="H60" t="n">
-        <v>43.18</v>
+        <v>0.4318</v>
       </c>
       <c r="I60" t="n">
-        <v>42.9</v>
+        <v>0.429</v>
       </c>
       <c r="J60" t="n">
-        <v>41.26</v>
+        <v>0.4126</v>
       </c>
       <c r="K60" t="n">
-        <v>41.14</v>
+        <v>0.4114</v>
       </c>
       <c r="L60" t="n">
-        <v>41.67</v>
+        <v>0.4167</v>
       </c>
       <c r="M60" t="n">
-        <v>42.62</v>
+        <v>0.4262</v>
       </c>
       <c r="N60" t="n">
-        <v>41.37</v>
+        <v>0.4137</v>
       </c>
       <c r="O60" t="n">
-        <v>40.43</v>
+        <v>0.4043</v>
       </c>
       <c r="P60" t="n">
-        <v>39.75</v>
+        <v>0.3975</v>
       </c>
       <c r="Q60" t="n">
-        <v>43.33</v>
+        <v>0.4333</v>
       </c>
       <c r="R60" t="n">
-        <v>42.07</v>
+        <v>0.4207</v>
       </c>
       <c r="S60" t="n">
-        <v>40.73</v>
+        <v>0.4073</v>
       </c>
       <c r="T60" t="n">
-        <v>40.62</v>
+        <v>0.4061999999999999</v>
       </c>
       <c r="U60" t="n">
-        <v>44.17</v>
+        <v>0.4417</v>
       </c>
       <c r="V60" t="n">
-        <v>44.18</v>
+        <v>0.4418</v>
       </c>
       <c r="W60" t="n">
-        <v>43.51</v>
+        <v>0.4351</v>
       </c>
       <c r="X60" t="n">
-        <v>43.85</v>
+        <v>0.4385</v>
       </c>
       <c r="Y60" t="n">
-        <v>43.85</v>
+        <v>0.4385</v>
       </c>
       <c r="Z60" t="n">
-        <v>43.6</v>
+        <v>0.436</v>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
@@ -5599,70 +5599,70 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>96.06999999999999</v>
+        <v>0.9606999999999999</v>
       </c>
       <c r="F61" t="n">
-        <v>95.28</v>
+        <v>0.9528</v>
       </c>
       <c r="G61" t="n">
-        <v>93.98999999999999</v>
+        <v>0.9399</v>
       </c>
       <c r="H61" t="n">
-        <v>89.01000000000001</v>
+        <v>0.8901</v>
       </c>
       <c r="I61" t="n">
-        <v>85.81</v>
+        <v>0.8581</v>
       </c>
       <c r="J61" t="n">
-        <v>90.05</v>
+        <v>0.9005</v>
       </c>
       <c r="K61" t="n">
-        <v>85.20999999999999</v>
+        <v>0.8521</v>
       </c>
       <c r="L61" t="n">
-        <v>85.43000000000001</v>
+        <v>0.8543000000000001</v>
       </c>
       <c r="M61" t="n">
-        <v>84.25</v>
+        <v>0.8425</v>
       </c>
       <c r="N61" t="n">
-        <v>91.18000000000001</v>
+        <v>0.9118000000000001</v>
       </c>
       <c r="O61" t="n">
-        <v>90.06</v>
+        <v>0.9006000000000001</v>
       </c>
       <c r="P61" t="n">
-        <v>85.23999999999999</v>
+        <v>0.8523999999999999</v>
       </c>
       <c r="Q61" t="n">
-        <v>79.70999999999999</v>
+        <v>0.7970999999999999</v>
       </c>
       <c r="R61" t="n">
-        <v>85.14</v>
+        <v>0.8514</v>
       </c>
       <c r="S61" t="n">
-        <v>87.83</v>
+        <v>0.8783</v>
       </c>
       <c r="T61" t="n">
-        <v>87.23999999999999</v>
+        <v>0.8724</v>
       </c>
       <c r="U61" t="n">
-        <v>87.28</v>
+        <v>0.8728</v>
       </c>
       <c r="V61" t="n">
-        <v>83.11</v>
+        <v>0.8310999999999999</v>
       </c>
       <c r="W61" t="n">
-        <v>87.79000000000001</v>
+        <v>0.8779</v>
       </c>
       <c r="X61" t="n">
-        <v>92.26000000000001</v>
+        <v>0.9226000000000001</v>
       </c>
       <c r="Y61" t="n">
-        <v>91.54000000000001</v>
+        <v>0.9154000000000001</v>
       </c>
       <c r="Z61" t="n">
-        <v>96.56999999999999</v>
+        <v>0.9656999999999999</v>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
@@ -6256,52 +6256,52 @@
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>0.04</v>
+        <v>0.0004</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>0.09</v>
+        <v>0.0009</v>
       </c>
       <c r="N70" t="n">
-        <v>0.28</v>
+        <v>0.0028</v>
       </c>
       <c r="O70" t="n">
-        <v>0.05</v>
+        <v>0.0005</v>
       </c>
       <c r="P70" t="n">
-        <v>1.46</v>
+        <v>0.0146</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.99</v>
+        <v>0.0199</v>
       </c>
       <c r="R70" t="n">
-        <v>1.3</v>
+        <v>0.013</v>
       </c>
       <c r="S70" t="n">
-        <v>0.5</v>
+        <v>0.005</v>
       </c>
       <c r="T70" t="n">
-        <v>0.5</v>
+        <v>0.005</v>
       </c>
       <c r="U70" t="n">
-        <v>0.5</v>
+        <v>0.005</v>
       </c>
       <c r="V70" t="n">
-        <v>0.5</v>
+        <v>0.005</v>
       </c>
       <c r="W70" t="n">
-        <v>0.5</v>
+        <v>0.005</v>
       </c>
       <c r="X70" t="n">
-        <v>3.14</v>
+        <v>0.0314</v>
       </c>
       <c r="Y70" t="n">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="Z70" t="n">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
@@ -6329,70 +6329,70 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6.51</v>
+        <v>0.06509999999999999</v>
       </c>
       <c r="F71" t="n">
-        <v>5.94</v>
+        <v>0.0594</v>
       </c>
       <c r="G71" t="n">
-        <v>6.03</v>
+        <v>0.0603</v>
       </c>
       <c r="H71" t="n">
-        <v>7.32</v>
+        <v>0.0732</v>
       </c>
       <c r="I71" t="n">
-        <v>9.529999999999999</v>
+        <v>0.0953</v>
       </c>
       <c r="J71" t="n">
-        <v>8.210000000000001</v>
+        <v>0.08210000000000001</v>
       </c>
       <c r="K71" t="n">
-        <v>8.08</v>
+        <v>0.0808</v>
       </c>
       <c r="L71" t="n">
-        <v>7.82</v>
+        <v>0.07820000000000001</v>
       </c>
       <c r="M71" t="n">
-        <v>11.79</v>
+        <v>0.1179</v>
       </c>
       <c r="N71" t="n">
-        <v>7.91</v>
+        <v>0.0791</v>
       </c>
       <c r="O71" t="n">
-        <v>6.19</v>
+        <v>0.0619</v>
       </c>
       <c r="P71" t="n">
-        <v>4.47</v>
+        <v>0.0447</v>
       </c>
       <c r="Q71" t="n">
-        <v>5.67</v>
+        <v>0.0567</v>
       </c>
       <c r="R71" t="n">
-        <v>3.09</v>
+        <v>0.0309</v>
       </c>
       <c r="S71" t="n">
-        <v>3.11</v>
+        <v>0.0311</v>
       </c>
       <c r="T71" t="n">
-        <v>3.1</v>
+        <v>0.031</v>
       </c>
       <c r="U71" t="n">
-        <v>4.93</v>
+        <v>0.0493</v>
       </c>
       <c r="V71" t="n">
-        <v>3.55</v>
+        <v>0.0355</v>
       </c>
       <c r="W71" t="n">
-        <v>4.5</v>
+        <v>0.045</v>
       </c>
       <c r="X71" t="n">
-        <v>3.1</v>
+        <v>0.031</v>
       </c>
       <c r="Y71" t="n">
-        <v>3.7</v>
+        <v>0.03700000000000001</v>
       </c>
       <c r="Z71" t="n">
-        <v>3.08</v>
+        <v>0.0308</v>
       </c>
       <c r="AA71" t="inlineStr">
         <is>
@@ -6420,70 +6420,70 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="F72" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="H72" t="n">
-        <v>4.01</v>
+        <v>0.0401</v>
       </c>
       <c r="I72" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="J72" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="K72" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="L72" t="n">
-        <v>4.01</v>
+        <v>0.0401</v>
       </c>
       <c r="M72" t="n">
-        <v>4.01</v>
+        <v>0.0401</v>
       </c>
       <c r="N72" t="n">
-        <v>4.01</v>
+        <v>0.0401</v>
       </c>
       <c r="O72" t="n">
-        <v>4.01</v>
+        <v>0.0401</v>
       </c>
       <c r="P72" t="n">
-        <v>4.02</v>
+        <v>0.04019999999999999</v>
       </c>
       <c r="Q72" t="n">
-        <v>4.02</v>
+        <v>0.04019999999999999</v>
       </c>
       <c r="R72" t="n">
-        <v>4.01</v>
+        <v>0.0401</v>
       </c>
       <c r="S72" t="n">
-        <v>4.01</v>
+        <v>0.0401</v>
       </c>
       <c r="T72" t="n">
-        <v>4.01</v>
+        <v>0.0401</v>
       </c>
       <c r="U72" t="n">
-        <v>4.01</v>
+        <v>0.0401</v>
       </c>
       <c r="V72" t="n">
-        <v>4.01</v>
+        <v>0.0401</v>
       </c>
       <c r="W72" t="n">
-        <v>4.03</v>
+        <v>0.0403</v>
       </c>
       <c r="X72" t="n">
-        <v>4.01</v>
+        <v>0.0401</v>
       </c>
       <c r="Y72" t="n">
-        <v>8.01</v>
+        <v>0.0801</v>
       </c>
       <c r="Z72" t="n">
-        <v>8.01</v>
+        <v>0.0801</v>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
@@ -6511,70 +6511,70 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.87</v>
+        <v>0.008699999999999999</v>
       </c>
       <c r="F73" t="n">
-        <v>1.56</v>
+        <v>0.0156</v>
       </c>
       <c r="G73" t="n">
-        <v>1.13</v>
+        <v>0.0113</v>
       </c>
       <c r="H73" t="n">
-        <v>1.83</v>
+        <v>0.0183</v>
       </c>
       <c r="I73" t="n">
-        <v>1.68</v>
+        <v>0.0168</v>
       </c>
       <c r="J73" t="n">
-        <v>1.25</v>
+        <v>0.0125</v>
       </c>
       <c r="K73" t="n">
-        <v>1.8</v>
+        <v>0.018</v>
       </c>
       <c r="L73" t="n">
-        <v>2.75</v>
+        <v>0.0275</v>
       </c>
       <c r="M73" t="n">
-        <v>1.58</v>
+        <v>0.0158</v>
       </c>
       <c r="N73" t="n">
-        <v>1.93</v>
+        <v>0.0193</v>
       </c>
       <c r="O73" t="n">
-        <v>2.15</v>
+        <v>0.0215</v>
       </c>
       <c r="P73" t="n">
-        <v>1.86</v>
+        <v>0.0186</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.9</v>
+        <v>0.009000000000000001</v>
       </c>
       <c r="R73" t="n">
-        <v>2.42</v>
+        <v>0.0242</v>
       </c>
       <c r="S73" t="n">
-        <v>2.67</v>
+        <v>0.0267</v>
       </c>
       <c r="T73" t="n">
-        <v>3.87</v>
+        <v>0.0387</v>
       </c>
       <c r="U73" t="n">
-        <v>3.16</v>
+        <v>0.0316</v>
       </c>
       <c r="V73" t="n">
-        <v>2.47</v>
+        <v>0.0247</v>
       </c>
       <c r="W73" t="n">
-        <v>4.01</v>
+        <v>0.0401</v>
       </c>
       <c r="X73" t="n">
-        <v>1.93</v>
+        <v>0.0193</v>
       </c>
       <c r="Y73" t="n">
-        <v>2.41</v>
+        <v>0.0241</v>
       </c>
       <c r="Z73" t="n">
-        <v>1.97</v>
+        <v>0.0197</v>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
@@ -6602,70 +6602,70 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>29.36</v>
+        <v>0.2936</v>
       </c>
       <c r="F74" t="n">
-        <v>29.31</v>
+        <v>0.2931</v>
       </c>
       <c r="G74" t="n">
-        <v>27.76</v>
+        <v>0.2776</v>
       </c>
       <c r="H74" t="n">
-        <v>26.3</v>
+        <v>0.263</v>
       </c>
       <c r="I74" t="n">
-        <v>29.44</v>
+        <v>0.2944</v>
       </c>
       <c r="J74" t="n">
-        <v>29.5</v>
+        <v>0.295</v>
       </c>
       <c r="K74" t="n">
-        <v>29.47</v>
+        <v>0.2947</v>
       </c>
       <c r="L74" t="n">
-        <v>28.86</v>
+        <v>0.2886</v>
       </c>
       <c r="M74" t="n">
-        <v>25.77</v>
+        <v>0.2577</v>
       </c>
       <c r="N74" t="n">
-        <v>25.36</v>
+        <v>0.2536</v>
       </c>
       <c r="O74" t="n">
-        <v>24.72</v>
+        <v>0.2472</v>
       </c>
       <c r="P74" t="n">
-        <v>23.86</v>
+        <v>0.2386</v>
       </c>
       <c r="Q74" t="n">
-        <v>25.66</v>
+        <v>0.2566</v>
       </c>
       <c r="R74" t="n">
-        <v>26.15</v>
+        <v>0.2615</v>
       </c>
       <c r="S74" t="n">
-        <v>25.33</v>
+        <v>0.2533</v>
       </c>
       <c r="T74" t="n">
-        <v>24.53</v>
+        <v>0.2453</v>
       </c>
       <c r="U74" t="n">
-        <v>25.83</v>
+        <v>0.2583</v>
       </c>
       <c r="V74" t="n">
-        <v>24.72</v>
+        <v>0.2472</v>
       </c>
       <c r="W74" t="n">
-        <v>22.93</v>
+        <v>0.2293</v>
       </c>
       <c r="X74" t="n">
-        <v>22.5</v>
+        <v>0.225</v>
       </c>
       <c r="Y74" t="n">
-        <v>23.8</v>
+        <v>0.238</v>
       </c>
       <c r="Z74" t="n">
-        <v>23.79</v>
+        <v>0.2379</v>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
@@ -6693,70 +6693,70 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1.01</v>
+        <v>0.0101</v>
       </c>
       <c r="F75" t="n">
-        <v>1.15</v>
+        <v>0.0115</v>
       </c>
       <c r="G75" t="n">
-        <v>1.15</v>
+        <v>0.0115</v>
       </c>
       <c r="H75" t="n">
-        <v>1.03</v>
+        <v>0.0103</v>
       </c>
       <c r="I75" t="n">
-        <v>0.99</v>
+        <v>0.009899999999999999</v>
       </c>
       <c r="J75" t="n">
-        <v>1.08</v>
+        <v>0.0108</v>
       </c>
       <c r="K75" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="L75" t="n">
-        <v>0.96</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="M75" t="n">
-        <v>0.91</v>
+        <v>0.0091</v>
       </c>
       <c r="N75" t="n">
-        <v>1.09</v>
+        <v>0.0109</v>
       </c>
       <c r="O75" t="n">
-        <v>1.14</v>
+        <v>0.0114</v>
       </c>
       <c r="P75" t="n">
-        <v>1.11</v>
+        <v>0.0111</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.1</v>
+        <v>0.011</v>
       </c>
       <c r="R75" t="n">
-        <v>1.14</v>
+        <v>0.0114</v>
       </c>
       <c r="S75" t="n">
-        <v>1.21</v>
+        <v>0.0121</v>
       </c>
       <c r="T75" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.009399999999999999</v>
       </c>
       <c r="U75" t="n">
-        <v>0.93</v>
+        <v>0.009300000000000001</v>
       </c>
       <c r="V75" t="n">
-        <v>1.05</v>
+        <v>0.0105</v>
       </c>
       <c r="W75" t="n">
-        <v>1.17</v>
+        <v>0.0117</v>
       </c>
       <c r="X75" t="n">
-        <v>0.96</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.85</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="Z75" t="n">
-        <v>0.97</v>
+        <v>0.0097</v>
       </c>
       <c r="AA75" t="inlineStr">
         <is>
@@ -6784,70 +6784,70 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.91</v>
+        <v>0.0091</v>
       </c>
       <c r="F76" t="n">
-        <v>1.05</v>
+        <v>0.0105</v>
       </c>
       <c r="G76" t="n">
-        <v>1.05</v>
+        <v>0.0105</v>
       </c>
       <c r="H76" t="n">
-        <v>0.93</v>
+        <v>0.009300000000000001</v>
       </c>
       <c r="I76" t="n">
-        <v>0.89</v>
+        <v>0.0089</v>
       </c>
       <c r="J76" t="n">
-        <v>0.97</v>
+        <v>0.0097</v>
       </c>
       <c r="K76" t="n">
-        <v>0.88</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="L76" t="n">
-        <v>0.83</v>
+        <v>0.0083</v>
       </c>
       <c r="M76" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.008100000000000001</v>
       </c>
       <c r="N76" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="O76" t="n">
-        <v>1.04</v>
+        <v>0.0104</v>
       </c>
       <c r="P76" t="n">
-        <v>1.02</v>
+        <v>0.0102</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.01</v>
+        <v>0.0101</v>
       </c>
       <c r="R76" t="n">
-        <v>1.05</v>
+        <v>0.0105</v>
       </c>
       <c r="S76" t="n">
-        <v>1.09</v>
+        <v>0.0109</v>
       </c>
       <c r="T76" t="n">
-        <v>0.83</v>
+        <v>0.0083</v>
       </c>
       <c r="U76" t="n">
-        <v>0.82</v>
+        <v>0.008199999999999999</v>
       </c>
       <c r="V76" t="n">
-        <v>0.92</v>
+        <v>0.0092</v>
       </c>
       <c r="W76" t="n">
-        <v>1.36</v>
+        <v>0.0136</v>
       </c>
       <c r="X76" t="n">
-        <v>1.11</v>
+        <v>0.0111</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.98</v>
+        <v>0.0098</v>
       </c>
       <c r="Z76" t="n">
-        <v>1.17</v>
+        <v>0.0117</v>
       </c>
       <c r="AA76" t="inlineStr">
         <is>
@@ -6875,70 +6875,70 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>2.53</v>
+        <v>0.0253</v>
       </c>
       <c r="F77" t="n">
-        <v>2.7</v>
+        <v>0.027</v>
       </c>
       <c r="G77" t="n">
-        <v>2.7</v>
+        <v>0.027</v>
       </c>
       <c r="H77" t="n">
-        <v>2.71</v>
+        <v>0.0271</v>
       </c>
       <c r="I77" t="n">
-        <v>2.75</v>
+        <v>0.0275</v>
       </c>
       <c r="J77" t="n">
-        <v>2.88</v>
+        <v>0.0288</v>
       </c>
       <c r="K77" t="n">
-        <v>2.98</v>
+        <v>0.0298</v>
       </c>
       <c r="L77" t="n">
-        <v>3.05</v>
+        <v>0.0305</v>
       </c>
       <c r="M77" t="n">
-        <v>3.01</v>
+        <v>0.0301</v>
       </c>
       <c r="N77" t="n">
-        <v>3.18</v>
+        <v>0.0318</v>
       </c>
       <c r="O77" t="n">
-        <v>3.21</v>
+        <v>0.0321</v>
       </c>
       <c r="P77" t="n">
-        <v>3.12</v>
+        <v>0.0312</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.98</v>
+        <v>0.0298</v>
       </c>
       <c r="R77" t="n">
-        <v>3.1</v>
+        <v>0.031</v>
       </c>
       <c r="S77" t="n">
-        <v>3.17</v>
+        <v>0.0317</v>
       </c>
       <c r="T77" t="n">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="U77" t="n">
-        <v>2.78</v>
+        <v>0.0278</v>
       </c>
       <c r="V77" t="n">
-        <v>2.91</v>
+        <v>0.0291</v>
       </c>
       <c r="W77" t="n">
-        <v>3.15</v>
+        <v>0.0315</v>
       </c>
       <c r="X77" t="n">
-        <v>2.59</v>
+        <v>0.0259</v>
       </c>
       <c r="Y77" t="n">
-        <v>1.89</v>
+        <v>0.0189</v>
       </c>
       <c r="Z77" t="n">
-        <v>1.94</v>
+        <v>0.0194</v>
       </c>
       <c r="AA77" t="inlineStr">
         <is>
@@ -6966,70 +6966,70 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1.78</v>
+        <v>0.0178</v>
       </c>
       <c r="F78" t="n">
-        <v>2.11</v>
+        <v>0.0211</v>
       </c>
       <c r="G78" t="n">
-        <v>2.2</v>
+        <v>0.022</v>
       </c>
       <c r="H78" t="n">
-        <v>1.95</v>
+        <v>0.0195</v>
       </c>
       <c r="I78" t="n">
-        <v>1.86</v>
+        <v>0.0186</v>
       </c>
       <c r="J78" t="n">
-        <v>2.04</v>
+        <v>0.0204</v>
       </c>
       <c r="K78" t="n">
-        <v>1.89</v>
+        <v>0.0189</v>
       </c>
       <c r="L78" t="n">
-        <v>1.76</v>
+        <v>0.0176</v>
       </c>
       <c r="M78" t="n">
-        <v>1.71</v>
+        <v>0.0171</v>
       </c>
       <c r="N78" t="n">
-        <v>2.16</v>
+        <v>0.0216</v>
       </c>
       <c r="O78" t="n">
-        <v>2.21</v>
+        <v>0.0221</v>
       </c>
       <c r="P78" t="n">
-        <v>2.3</v>
+        <v>0.023</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.16</v>
+        <v>0.0216</v>
       </c>
       <c r="R78" t="n">
-        <v>2.36</v>
+        <v>0.0236</v>
       </c>
       <c r="S78" t="n">
-        <v>2.39</v>
+        <v>0.0239</v>
       </c>
       <c r="T78" t="n">
-        <v>1.83</v>
+        <v>0.0183</v>
       </c>
       <c r="U78" t="n">
-        <v>1.79</v>
+        <v>0.0179</v>
       </c>
       <c r="V78" t="n">
-        <v>1.93</v>
+        <v>0.0193</v>
       </c>
       <c r="W78" t="n">
-        <v>2.08</v>
+        <v>0.0208</v>
       </c>
       <c r="X78" t="n">
-        <v>1.6</v>
+        <v>0.016</v>
       </c>
       <c r="Y78" t="n">
-        <v>1.34</v>
+        <v>0.0134</v>
       </c>
       <c r="Z78" t="n">
-        <v>1.62</v>
+        <v>0.0162</v>
       </c>
       <c r="AA78" t="inlineStr">
         <is>
@@ -7057,70 +7057,70 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.59</v>
+        <v>0.0059</v>
       </c>
       <c r="F79" t="n">
-        <v>0.72</v>
+        <v>0.0072</v>
       </c>
       <c r="G79" t="n">
-        <v>0.76</v>
+        <v>0.0076</v>
       </c>
       <c r="H79" t="n">
-        <v>0.63</v>
+        <v>0.0063</v>
       </c>
       <c r="I79" t="n">
-        <v>0.58</v>
+        <v>0.0058</v>
       </c>
       <c r="J79" t="n">
-        <v>0.68</v>
+        <v>0.0068</v>
       </c>
       <c r="K79" t="n">
-        <v>0.67</v>
+        <v>0.0067</v>
       </c>
       <c r="L79" t="n">
-        <v>0.57</v>
+        <v>0.005699999999999999</v>
       </c>
       <c r="M79" t="n">
-        <v>0.59</v>
+        <v>0.0059</v>
       </c>
       <c r="N79" t="n">
-        <v>0.66</v>
+        <v>0.0066</v>
       </c>
       <c r="O79" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.0069</v>
       </c>
       <c r="P79" t="n">
-        <v>0.79</v>
+        <v>0.007900000000000001</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.78</v>
+        <v>0.007800000000000001</v>
       </c>
       <c r="R79" t="n">
-        <v>0.89</v>
+        <v>0.0089</v>
       </c>
       <c r="S79" t="n">
-        <v>0.9</v>
+        <v>0.009000000000000001</v>
       </c>
       <c r="T79" t="n">
-        <v>0.7</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="U79" t="n">
-        <v>0.74</v>
+        <v>0.0074</v>
       </c>
       <c r="V79" t="n">
-        <v>0.74</v>
+        <v>0.0074</v>
       </c>
       <c r="W79" t="n">
-        <v>1.05</v>
+        <v>0.0105</v>
       </c>
       <c r="X79" t="n">
-        <v>0.59</v>
+        <v>0.0059</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.47</v>
+        <v>0.004699999999999999</v>
       </c>
       <c r="Z79" t="n">
-        <v>0.59</v>
+        <v>0.0059</v>
       </c>
       <c r="AA79" t="inlineStr">
         <is>
@@ -7148,70 +7148,70 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>4.86</v>
+        <v>0.0486</v>
       </c>
       <c r="F80" t="n">
-        <v>4.79</v>
+        <v>0.0479</v>
       </c>
       <c r="G80" t="n">
-        <v>4.72</v>
+        <v>0.0472</v>
       </c>
       <c r="H80" t="n">
-        <v>4.4</v>
+        <v>0.044</v>
       </c>
       <c r="I80" t="n">
-        <v>4.46</v>
+        <v>0.0446</v>
       </c>
       <c r="J80" t="n">
-        <v>4.42</v>
+        <v>0.0442</v>
       </c>
       <c r="K80" t="n">
-        <v>4.49</v>
+        <v>0.0449</v>
       </c>
       <c r="L80" t="n">
-        <v>4.2</v>
+        <v>0.042</v>
       </c>
       <c r="M80" t="n">
-        <v>3.91</v>
+        <v>0.0391</v>
       </c>
       <c r="N80" t="n">
-        <v>3.69</v>
+        <v>0.0369</v>
       </c>
       <c r="O80" t="n">
-        <v>3.47</v>
+        <v>0.0347</v>
       </c>
       <c r="P80" t="n">
-        <v>3.06</v>
+        <v>0.0306</v>
       </c>
       <c r="Q80" t="n">
-        <v>3.41</v>
+        <v>0.0341</v>
       </c>
       <c r="R80" t="n">
-        <v>3.49</v>
+        <v>0.0349</v>
       </c>
       <c r="S80" t="n">
-        <v>3.14</v>
+        <v>0.0314</v>
       </c>
       <c r="T80" t="n">
-        <v>3.05</v>
+        <v>0.0305</v>
       </c>
       <c r="U80" t="n">
-        <v>3.32</v>
+        <v>0.0332</v>
       </c>
       <c r="V80" t="n">
-        <v>3.38</v>
+        <v>0.0338</v>
       </c>
       <c r="W80" t="n">
-        <v>3.12</v>
+        <v>0.0312</v>
       </c>
       <c r="X80" t="n">
-        <v>3.17</v>
+        <v>0.0317</v>
       </c>
       <c r="Y80" t="n">
-        <v>4.02</v>
+        <v>0.04019999999999999</v>
       </c>
       <c r="Z80" t="n">
-        <v>3.98</v>
+        <v>0.0398</v>
       </c>
       <c r="AA80" t="inlineStr">
         <is>
@@ -7239,70 +7239,70 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>24.56</v>
+        <v>0.2456</v>
       </c>
       <c r="F81" t="n">
-        <v>24.7</v>
+        <v>0.247</v>
       </c>
       <c r="G81" t="n">
-        <v>24.77</v>
+        <v>0.2477</v>
       </c>
       <c r="H81" t="n">
-        <v>22.7</v>
+        <v>0.227</v>
       </c>
       <c r="I81" t="n">
-        <v>23.49</v>
+        <v>0.2349</v>
       </c>
       <c r="J81" t="n">
-        <v>23.53</v>
+        <v>0.2353</v>
       </c>
       <c r="K81" t="n">
-        <v>24.18</v>
+        <v>0.2418</v>
       </c>
       <c r="L81" t="n">
-        <v>22.28</v>
+        <v>0.2228</v>
       </c>
       <c r="M81" t="n">
-        <v>21.7</v>
+        <v>0.217</v>
       </c>
       <c r="N81" t="n">
-        <v>20.65</v>
+        <v>0.2065</v>
       </c>
       <c r="O81" t="n">
-        <v>19.56</v>
+        <v>0.1956</v>
       </c>
       <c r="P81" t="n">
-        <v>16.8</v>
+        <v>0.168</v>
       </c>
       <c r="Q81" t="n">
-        <v>18.25</v>
+        <v>0.1825</v>
       </c>
       <c r="R81" t="n">
-        <v>18.72</v>
+        <v>0.1872</v>
       </c>
       <c r="S81" t="n">
-        <v>16.63</v>
+        <v>0.1663</v>
       </c>
       <c r="T81" t="n">
-        <v>15.82</v>
+        <v>0.1582</v>
       </c>
       <c r="U81" t="n">
-        <v>16.54</v>
+        <v>0.1654</v>
       </c>
       <c r="V81" t="n">
-        <v>16.87</v>
+        <v>0.1687</v>
       </c>
       <c r="W81" t="n">
-        <v>15.62</v>
+        <v>0.1562</v>
       </c>
       <c r="X81" t="n">
-        <v>15.56</v>
+        <v>0.1556</v>
       </c>
       <c r="Y81" t="n">
-        <v>17.97</v>
+        <v>0.1797</v>
       </c>
       <c r="Z81" t="n">
-        <v>18.03</v>
+        <v>0.1803</v>
       </c>
       <c r="AA81" t="inlineStr">
         <is>
@@ -7330,70 +7330,70 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>5.83</v>
+        <v>0.0583</v>
       </c>
       <c r="F82" t="n">
-        <v>5.78</v>
+        <v>0.0578</v>
       </c>
       <c r="G82" t="n">
-        <v>5.69</v>
+        <v>0.05690000000000001</v>
       </c>
       <c r="H82" t="n">
-        <v>5.62</v>
+        <v>0.0562</v>
       </c>
       <c r="I82" t="n">
-        <v>5.54</v>
+        <v>0.0554</v>
       </c>
       <c r="J82" t="n">
-        <v>5.52</v>
+        <v>0.0552</v>
       </c>
       <c r="K82" t="n">
-        <v>5.56</v>
+        <v>0.0556</v>
       </c>
       <c r="L82" t="n">
-        <v>5.59</v>
+        <v>0.0559</v>
       </c>
       <c r="M82" t="n">
-        <v>5.34</v>
+        <v>0.0534</v>
       </c>
       <c r="N82" t="n">
-        <v>5.13</v>
+        <v>0.0513</v>
       </c>
       <c r="O82" t="n">
-        <v>4.98</v>
+        <v>0.0498</v>
       </c>
       <c r="P82" t="n">
-        <v>4.92</v>
+        <v>0.0492</v>
       </c>
       <c r="Q82" t="n">
-        <v>5.1</v>
+        <v>0.051</v>
       </c>
       <c r="R82" t="n">
-        <v>5.17</v>
+        <v>0.0517</v>
       </c>
       <c r="S82" t="n">
-        <v>5.25</v>
+        <v>0.0525</v>
       </c>
       <c r="T82" t="n">
-        <v>5.3</v>
+        <v>0.053</v>
       </c>
       <c r="U82" t="n">
-        <v>5.7</v>
+        <v>0.057</v>
       </c>
       <c r="V82" t="n">
-        <v>5.83</v>
+        <v>0.0583</v>
       </c>
       <c r="W82" t="n">
-        <v>5.96</v>
+        <v>0.0596</v>
       </c>
       <c r="X82" t="n">
-        <v>6.13</v>
+        <v>0.0613</v>
       </c>
       <c r="Y82" t="n">
-        <v>6.24</v>
+        <v>0.0624</v>
       </c>
       <c r="Z82" t="n">
-        <v>6.23</v>
+        <v>0.0623</v>
       </c>
       <c r="AA82" t="inlineStr">
         <is>
@@ -7421,70 +7421,70 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>41.67</v>
+        <v>0.4167</v>
       </c>
       <c r="F83" t="n">
-        <v>41.22</v>
+        <v>0.4122</v>
       </c>
       <c r="G83" t="n">
-        <v>41.08</v>
+        <v>0.4108</v>
       </c>
       <c r="H83" t="n">
-        <v>43.96</v>
+        <v>0.4396</v>
       </c>
       <c r="I83" t="n">
-        <v>43.7</v>
+        <v>0.4370000000000001</v>
       </c>
       <c r="J83" t="n">
-        <v>43.79</v>
+        <v>0.4379</v>
       </c>
       <c r="K83" t="n">
-        <v>43.49</v>
+        <v>0.4349</v>
       </c>
       <c r="L83" t="n">
-        <v>47.65</v>
+        <v>0.4765</v>
       </c>
       <c r="M83" t="n">
-        <v>46.54</v>
+        <v>0.4654</v>
       </c>
       <c r="N83" t="n">
-        <v>48.55</v>
+        <v>0.4855</v>
       </c>
       <c r="O83" t="n">
-        <v>52.38</v>
+        <v>0.5238</v>
       </c>
       <c r="P83" t="n">
-        <v>56.73</v>
+        <v>0.5672999999999999</v>
       </c>
       <c r="Q83" t="n">
-        <v>54.15</v>
+        <v>0.5415</v>
       </c>
       <c r="R83" t="n">
-        <v>54.29</v>
+        <v>0.5428999999999999</v>
       </c>
       <c r="S83" t="n">
-        <v>60.28</v>
+        <v>0.6028</v>
       </c>
       <c r="T83" t="n">
-        <v>63.27</v>
+        <v>0.6327</v>
       </c>
       <c r="U83" t="n">
-        <v>63.45</v>
+        <v>0.6345000000000001</v>
       </c>
       <c r="V83" t="n">
-        <v>65.56999999999999</v>
+        <v>0.6556999999999999</v>
       </c>
       <c r="W83" t="n">
-        <v>66.59</v>
+        <v>0.6659</v>
       </c>
       <c r="X83" t="n">
-        <v>77.09</v>
+        <v>0.7709</v>
       </c>
       <c r="Y83" t="n">
-        <v>59.09</v>
+        <v>0.5909</v>
       </c>
       <c r="Z83" t="n">
-        <v>59.84</v>
+        <v>0.5984</v>
       </c>
       <c r="AA83" t="inlineStr">
         <is>
@@ -7512,70 +7512,70 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>31.47</v>
+        <v>0.3147</v>
       </c>
       <c r="F84" t="n">
-        <v>30.36</v>
+        <v>0.3036</v>
       </c>
       <c r="G84" t="n">
-        <v>30.65</v>
+        <v>0.3065</v>
       </c>
       <c r="H84" t="n">
-        <v>32.41</v>
+        <v>0.3240999999999999</v>
       </c>
       <c r="I84" t="n">
-        <v>34.13</v>
+        <v>0.3413</v>
       </c>
       <c r="J84" t="n">
-        <v>33.08</v>
+        <v>0.3308</v>
       </c>
       <c r="K84" t="n">
-        <v>32.54</v>
+        <v>0.3254</v>
       </c>
       <c r="L84" t="n">
-        <v>34.42</v>
+        <v>0.3442</v>
       </c>
       <c r="M84" t="n">
-        <v>33.92</v>
+        <v>0.3392</v>
       </c>
       <c r="N84" t="n">
-        <v>34.49</v>
+        <v>0.3449</v>
       </c>
       <c r="O84" t="n">
-        <v>34.34</v>
+        <v>0.3434</v>
       </c>
       <c r="P84" t="n">
-        <v>35.8</v>
+        <v>0.358</v>
       </c>
       <c r="Q84" t="n">
-        <v>36.28</v>
+        <v>0.3628</v>
       </c>
       <c r="R84" t="n">
-        <v>35.2</v>
+        <v>0.352</v>
       </c>
       <c r="S84" t="n">
-        <v>38.23</v>
+        <v>0.3823</v>
       </c>
       <c r="T84" t="n">
-        <v>42.47</v>
+        <v>0.4247</v>
       </c>
       <c r="U84" t="n">
-        <v>44.32</v>
+        <v>0.4432</v>
       </c>
       <c r="V84" t="n">
-        <v>47.22</v>
+        <v>0.4722</v>
       </c>
       <c r="W84" t="n">
-        <v>45.65</v>
+        <v>0.4565</v>
       </c>
       <c r="X84" t="n">
-        <v>67.66</v>
+        <v>0.6766</v>
       </c>
       <c r="Y84" t="n">
-        <v>43.33</v>
+        <v>0.4333</v>
       </c>
       <c r="Z84" t="n">
-        <v>43.21</v>
+        <v>0.4321</v>
       </c>
       <c r="AA84" t="inlineStr">
         <is>
@@ -7603,31 +7603,31 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>78.44</v>
+        <v>0.7844</v>
       </c>
       <c r="F85" t="n">
-        <v>75.09999999999999</v>
+        <v>0.7509999999999999</v>
       </c>
       <c r="G85" t="n">
-        <v>72.73999999999999</v>
+        <v>0.7273999999999999</v>
       </c>
       <c r="H85" t="n">
-        <v>71.23</v>
+        <v>0.7123</v>
       </c>
       <c r="I85" t="n">
-        <v>70.2</v>
+        <v>0.7020000000000001</v>
       </c>
       <c r="J85" t="n">
-        <v>67.41</v>
+        <v>0.6740999999999999</v>
       </c>
       <c r="K85" t="n">
-        <v>65.75</v>
+        <v>0.6575</v>
       </c>
       <c r="L85" t="n">
-        <v>65.61</v>
+        <v>0.6561</v>
       </c>
       <c r="M85" t="n">
-        <v>65.23</v>
+        <v>0.6523</v>
       </c>
       <c r="N85" t="n">
         <v>0</v>
@@ -7639,34 +7639,34 @@
         <v>0</v>
       </c>
       <c r="Q85" t="n">
-        <v>61.96</v>
+        <v>0.6196</v>
       </c>
       <c r="R85" t="n">
-        <v>61.97</v>
+        <v>0.6197</v>
       </c>
       <c r="S85" t="n">
-        <v>62.35</v>
+        <v>0.6235000000000001</v>
       </c>
       <c r="T85" t="n">
-        <v>65.23999999999999</v>
+        <v>0.6524</v>
       </c>
       <c r="U85" t="n">
-        <v>65.77</v>
+        <v>0.6577</v>
       </c>
       <c r="V85" t="n">
-        <v>69.55</v>
+        <v>0.6955</v>
       </c>
       <c r="W85" t="n">
-        <v>73.28</v>
+        <v>0.7328</v>
       </c>
       <c r="X85" t="n">
-        <v>77.64</v>
+        <v>0.7764</v>
       </c>
       <c r="Y85" t="n">
-        <v>80.47</v>
+        <v>0.8047</v>
       </c>
       <c r="Z85" t="n">
-        <v>80.58</v>
+        <v>0.8058</v>
       </c>
       <c r="AA85" t="inlineStr">
         <is>
@@ -8269,19 +8269,19 @@
         <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>7.31</v>
+        <v>0.0731</v>
       </c>
       <c r="O94" t="n">
-        <v>5.31</v>
+        <v>0.05309999999999999</v>
       </c>
       <c r="P94" t="n">
-        <v>4.33</v>
+        <v>0.0433</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.5</v>
+        <v>0.005</v>
       </c>
       <c r="R94" t="n">
-        <v>0.5</v>
+        <v>0.005</v>
       </c>
       <c r="S94" t="n">
         <v>0</v>
@@ -8299,13 +8299,13 @@
         <v>0</v>
       </c>
       <c r="X94" t="n">
-        <v>2.5</v>
+        <v>0.025</v>
       </c>
       <c r="Y94" t="n">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="Z94" t="n">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="AA94" t="inlineStr">
         <is>
@@ -8333,70 +8333,70 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>5.04</v>
+        <v>0.0504</v>
       </c>
       <c r="F95" t="n">
-        <v>5.01</v>
+        <v>0.0501</v>
       </c>
       <c r="G95" t="n">
-        <v>5.02</v>
+        <v>0.05019999999999999</v>
       </c>
       <c r="H95" t="n">
-        <v>6.21</v>
+        <v>0.0621</v>
       </c>
       <c r="I95" t="n">
-        <v>6.4</v>
+        <v>0.064</v>
       </c>
       <c r="J95" t="n">
-        <v>7.25</v>
+        <v>0.0725</v>
       </c>
       <c r="K95" t="n">
-        <v>7.55</v>
+        <v>0.0755</v>
       </c>
       <c r="L95" t="n">
-        <v>7.32</v>
+        <v>0.0732</v>
       </c>
       <c r="M95" t="n">
-        <v>7.48</v>
+        <v>0.07480000000000001</v>
       </c>
       <c r="N95" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="O95" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="P95" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="Q95" t="n">
-        <v>3.15</v>
+        <v>0.0315</v>
       </c>
       <c r="R95" t="n">
-        <v>3.29</v>
+        <v>0.0329</v>
       </c>
       <c r="S95" t="n">
-        <v>3.02</v>
+        <v>0.0302</v>
       </c>
       <c r="T95" t="n">
-        <v>3.01</v>
+        <v>0.0301</v>
       </c>
       <c r="U95" t="n">
-        <v>3.17</v>
+        <v>0.0317</v>
       </c>
       <c r="V95" t="n">
-        <v>3.01</v>
+        <v>0.0301</v>
       </c>
       <c r="W95" t="n">
-        <v>3.01</v>
+        <v>0.0301</v>
       </c>
       <c r="X95" t="n">
-        <v>3.02</v>
+        <v>0.0302</v>
       </c>
       <c r="Y95" t="n">
-        <v>3.05</v>
+        <v>0.0305</v>
       </c>
       <c r="Z95" t="n">
-        <v>3.01</v>
+        <v>0.0301</v>
       </c>
       <c r="AA95" t="inlineStr">
         <is>
@@ -8424,70 +8424,70 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="F96" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="I96" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="J96" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="K96" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="L96" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="M96" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1</v>
+        <v>0.001</v>
       </c>
       <c r="O96" t="n">
-        <v>0.73</v>
+        <v>0.0073</v>
       </c>
       <c r="P96" t="n">
-        <v>0.11</v>
+        <v>0.0011</v>
       </c>
       <c r="Q96" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="R96" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="S96" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="T96" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="U96" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="V96" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="W96" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="X96" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="Y96" t="n">
-        <v>8.52</v>
+        <v>0.0852</v>
       </c>
       <c r="Z96" t="n">
-        <v>6</v>
+        <v>0.06</v>
       </c>
       <c r="AA96" t="inlineStr">
         <is>
@@ -8515,31 +8515,31 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.26</v>
+        <v>0.0026</v>
       </c>
       <c r="F97" t="n">
-        <v>0.06</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="G97" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.0007000000000000001</v>
       </c>
       <c r="H97" t="n">
-        <v>0.35</v>
+        <v>0.0035</v>
       </c>
       <c r="I97" t="n">
-        <v>0.11</v>
+        <v>0.0011</v>
       </c>
       <c r="J97" t="n">
-        <v>0.22</v>
+        <v>0.0022</v>
       </c>
       <c r="K97" t="n">
-        <v>0.15</v>
+        <v>0.0015</v>
       </c>
       <c r="L97" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.0007000000000000001</v>
       </c>
       <c r="M97" t="n">
-        <v>0.12</v>
+        <v>0.0012</v>
       </c>
       <c r="N97" t="n">
         <v>0</v>
@@ -8551,34 +8551,34 @@
         <v>0</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.08</v>
+        <v>0.0008</v>
       </c>
       <c r="R97" t="n">
-        <v>0.14</v>
+        <v>0.0014</v>
       </c>
       <c r="S97" t="n">
-        <v>0.26</v>
+        <v>0.0026</v>
       </c>
       <c r="T97" t="n">
-        <v>0.42</v>
+        <v>0.0042</v>
       </c>
       <c r="U97" t="n">
-        <v>0.35</v>
+        <v>0.0035</v>
       </c>
       <c r="V97" t="n">
-        <v>0.09</v>
+        <v>0.0009</v>
       </c>
       <c r="W97" t="n">
-        <v>0.14</v>
+        <v>0.0014</v>
       </c>
       <c r="X97" t="n">
-        <v>0.17</v>
+        <v>0.0017</v>
       </c>
       <c r="Y97" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.009399999999999999</v>
       </c>
       <c r="Z97" t="n">
-        <v>0.38</v>
+        <v>0.0038</v>
       </c>
       <c r="AA97" t="inlineStr">
         <is>

--- a/data/Rasio-KBMI-4.xlsx
+++ b/data/Rasio-KBMI-4.xlsx
@@ -4267,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>0.0469</v>
       </c>
       <c r="Q46" t="n">
         <v>0.005</v>
@@ -4370,7 +4370,7 @@
         <v>0.0325</v>
       </c>
       <c r="T47" t="n">
-        <v>0</v>
+        <v>0.0308</v>
       </c>
       <c r="U47" t="n">
         <v>0.035</v>
@@ -5438,7 +5438,7 @@
         <v>0.6739000000000001</v>
       </c>
       <c r="L59" t="n">
-        <v>0.6625</v>
+        <v>0.6663</v>
       </c>
       <c r="M59" t="n">
         <v>0.6862999999999999</v>
@@ -6432,13 +6432,13 @@
         <v>0.0401</v>
       </c>
       <c r="I72" t="n">
-        <v>0.02</v>
+        <v>0.0401</v>
       </c>
       <c r="J72" t="n">
-        <v>0.02</v>
+        <v>0.0401</v>
       </c>
       <c r="K72" t="n">
-        <v>0.02</v>
+        <v>0.0401</v>
       </c>
       <c r="L72" t="n">
         <v>0.0401</v>
@@ -7433,16 +7433,16 @@
         <v>0.4396</v>
       </c>
       <c r="I83" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.4376</v>
       </c>
       <c r="J83" t="n">
-        <v>0.4379</v>
+        <v>0.4443</v>
       </c>
       <c r="K83" t="n">
-        <v>0.4349</v>
+        <v>0.4409</v>
       </c>
       <c r="L83" t="n">
-        <v>0.4765</v>
+        <v>0.4816</v>
       </c>
       <c r="M83" t="n">
         <v>0.4654</v>
@@ -7527,25 +7527,25 @@
         <v>0.3413</v>
       </c>
       <c r="J84" t="n">
-        <v>0.3308</v>
+        <v>0.3356</v>
       </c>
       <c r="K84" t="n">
-        <v>0.3254</v>
+        <v>0.3290999999999999</v>
       </c>
       <c r="L84" t="n">
-        <v>0.3442</v>
+        <v>0.3515</v>
       </c>
       <c r="M84" t="n">
-        <v>0.3392</v>
+        <v>0.361</v>
       </c>
       <c r="N84" t="n">
-        <v>0.3449</v>
+        <v>0.3746</v>
       </c>
       <c r="O84" t="n">
-        <v>0.3434</v>
+        <v>0.3892</v>
       </c>
       <c r="P84" t="n">
-        <v>0.358</v>
+        <v>0.3794</v>
       </c>
       <c r="Q84" t="n">
         <v>0.3628</v>
@@ -7630,13 +7630,13 @@
         <v>0.6523</v>
       </c>
       <c r="N85" t="n">
-        <v>0</v>
+        <v>0.6334000000000001</v>
       </c>
       <c r="O85" t="n">
-        <v>0</v>
+        <v>0.6347</v>
       </c>
       <c r="P85" t="n">
-        <v>0</v>
+        <v>0.6053999999999999</v>
       </c>
       <c r="Q85" t="n">
         <v>0.6196</v>
@@ -8257,13 +8257,13 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
+        <v>0.0725</v>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>0.0755</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>0.0732</v>
       </c>
       <c r="M94" t="n">
         <v>0</v>
@@ -8360,13 +8360,13 @@
         <v>0.07480000000000001</v>
       </c>
       <c r="N95" t="n">
-        <v>0.02</v>
+        <v>0.0731</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02</v>
+        <v>0.05309999999999999</v>
       </c>
       <c r="P95" t="n">
-        <v>0.02</v>
+        <v>0.0433</v>
       </c>
       <c r="Q95" t="n">
         <v>0.0315</v>
@@ -8451,13 +8451,13 @@
         <v>0.02</v>
       </c>
       <c r="N96" t="n">
-        <v>0.001</v>
+        <v>0.02</v>
       </c>
       <c r="O96" t="n">
-        <v>0.0073</v>
+        <v>0.02</v>
       </c>
       <c r="P96" t="n">
-        <v>0.0011</v>
+        <v>0.02</v>
       </c>
       <c r="Q96" t="n">
         <v>0.02</v>
@@ -8542,13 +8542,13 @@
         <v>0.0012</v>
       </c>
       <c r="N97" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="O97" t="n">
-        <v>0</v>
+        <v>0.0073</v>
       </c>
       <c r="P97" t="n">
-        <v>0</v>
+        <v>0.0011</v>
       </c>
       <c r="Q97" t="n">
         <v>0.0008</v>
